--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DD080-EC5A-FC40-B897-B4401F7D8B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71911670-183E-C446-AD5D-93B8277B5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -549,19 +549,26 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares</t>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,9 +941,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -949,12 +953,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1012,6 +1010,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,6 +1044,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,11 +2260,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>111.69</v>
+    <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>1.0204</v>
-    <v>-1.59</v>
-    <v>-2.4666E-2</v>
+    <v>0.98119999999999996</v>
+    <v>1.8</v>
+    <v>3.2010999999999998E-2</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2257,23 +2272,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>64.534999999999997</v>
+    <v>58.895000000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45035.999867164064</v>
+    <v>45071.99967657344</v>
     <v>0</v>
-    <v>62.6</v>
-    <v>20767507602</v>
+    <v>57.31</v>
+    <v>19260841754</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>63.93</v>
-    <v>64.459999999999994</v>
-    <v>62.87</v>
-    <v>330324600</v>
+    <v>57.93</v>
+    <v>56.23</v>
+    <v>58.03</v>
+    <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>5080</v>
-    <v>3852412</v>
+    <v>5700194</v>
+    <v>7429709</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2839,10 +2854,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M101" sqref="M101"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2877,19 +2892,19 @@
       <c r="H1" s="8">
         <v>2022</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="27">
         <v>2023</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="27">
         <v>2024</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="27">
         <v>2025</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="27">
         <v>2026</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -2959,20 +2974,20 @@
       <c r="H3" s="1">
         <v>975241000</v>
       </c>
-      <c r="I3" s="29">
-        <v>1336000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>1776000000</v>
-      </c>
-      <c r="K3" s="29">
-        <v>2412000000</v>
-      </c>
-      <c r="L3" s="29">
-        <v>3457000000</v>
-      </c>
-      <c r="M3" s="29">
-        <v>4816000000</v>
+      <c r="I3" s="28">
+        <v>1282000000</v>
+      </c>
+      <c r="J3" s="28">
+        <v>1668000000</v>
+      </c>
+      <c r="K3" s="28">
+        <v>2151000000</v>
+      </c>
+      <c r="L3" s="28">
+        <v>2988000000</v>
+      </c>
+      <c r="M3" s="28">
+        <v>3825000000</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>109</v>
@@ -3018,23 +3033,23 @@
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.36991779467844355</v>
+        <v>0.31454686585162017</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3293413173652695</v>
+        <v>0.30109204368174725</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.35810810810810811</v>
+        <v>0.28956834532374098</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.43325041459369817</v>
+        <v>0.38912133891213396</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.39311541799247895</v>
+        <v>0.28012048192771077</v>
       </c>
       <c r="N4" s="17">
         <f>(H4+G4+F4)/3</f>
@@ -3396,7 +3411,7 @@
         <f>H22/(H72+H56+H61)</f>
         <v>-9.1412072846884795E-2</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="62">
         <f>H67/H72</f>
         <v>3.1475277419851144</v>
       </c>
@@ -3490,24 +3505,24 @@
       <c r="H16" s="1">
         <v>1176444000</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="29">
         <f>(H35+G35+F35+E35+D35)/5</f>
         <v>0.13947445605504918</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="61">
         <f>P101/H3</f>
-        <v>21.294744172978781</v>
-      </c>
-      <c r="P16" s="31">
+        <v>19.749827738989644</v>
+      </c>
+      <c r="P16" s="61">
         <f>P101/H28</f>
-        <v>-107.39166516876011</v>
-      </c>
-      <c r="Q16" s="32">
+        <v>-99.600486883406333</v>
+      </c>
+      <c r="Q16" s="63">
         <f>P101/H106</f>
-        <v>-522.20341477029842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>-484.31798018557168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>4984000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3561,8 +3576,14 @@
       <c r="N18" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="O18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3587,12 +3608,35 @@
       <c r="H19" s="10">
         <v>-83677000</v>
       </c>
-      <c r="N19" s="33">
+      <c r="I19" s="57">
+        <v>204300000</v>
+      </c>
+      <c r="J19" s="57">
+        <v>265600000</v>
+      </c>
+      <c r="K19" s="57">
+        <v>379000000</v>
+      </c>
+      <c r="L19" s="57">
+        <v>384000000</v>
+      </c>
+      <c r="M19" s="57">
+        <v>528000000</v>
+      </c>
+      <c r="N19" s="30">
         <f>H40-H56-H61</f>
         <v>72846000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="64">
+        <f>P101/I3</f>
+        <v>15.024057530421217</v>
+      </c>
+      <c r="P19" s="61">
+        <f>P101/I28</f>
+        <v>164.0616844463373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3621,8 +3665,28 @@
         <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
         <v>-0.36673099481590798</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
+        <v>-3.4415311256378693</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
+        <v>0.30004894762604017</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
+        <v>0.4269578313253013</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="9">(L19/K19)-1</f>
+        <v>1.3192612137203241E-2</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="10">(M19/L19)-1</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3647,8 +3711,28 @@
       <c r="H21" s="2">
         <v>-8.5800000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I21" s="58">
+        <f>I19/I3</f>
+        <v>0.15936037441497661</v>
+      </c>
+      <c r="J21" s="58">
+        <f t="shared" ref="J21:M21" si="11">J19/J3</f>
+        <v>0.15923261390887289</v>
+      </c>
+      <c r="K21" s="58">
+        <f t="shared" si="11"/>
+        <v>0.17619711761971177</v>
+      </c>
+      <c r="L21" s="58">
+        <f t="shared" si="11"/>
+        <v>0.12851405622489959</v>
+      </c>
+      <c r="M21" s="58">
+        <f t="shared" si="11"/>
+        <v>0.1380392156862745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3674,7 +3758,7 @@
         <v>-201203000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3700,7 +3784,7 @@
         <v>-0.20630000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3726,7 +3810,7 @@
         <v>10470000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3752,7 +3836,7 @@
         <v>-190733000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3778,7 +3862,7 @@
         <v>-0.1956</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3804,7 +3888,7 @@
         <v>2648000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3829,8 +3913,23 @@
       <c r="H28" s="11">
         <v>-193381000</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="71">
+        <v>117400000</v>
+      </c>
+      <c r="J28" s="71">
+        <v>148100000</v>
+      </c>
+      <c r="K28" s="71">
+        <v>224500000</v>
+      </c>
+      <c r="L28" s="71">
+        <v>406600000</v>
+      </c>
+      <c r="M28" s="71">
+        <v>637400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3848,19 +3947,39 @@
         <v>0.21412509751732367</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="12">(F28/E28)-1</f>
         <v>0.12796235400839095</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" ref="G29" si="7">(G28/F28)-1</f>
+        <f t="shared" ref="G29" si="13">(G28/F28)-1</f>
         <v>1.1806902906928038</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" ref="H29" si="8">(H28/G28)-1</f>
+        <f t="shared" ref="H29" si="14">(H28/G28)-1</f>
         <v>-0.25710981948376732</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="15">(I28/H28)-1</f>
+        <v>-1.6070916998050482</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="16">(J28/I28)-1</f>
+        <v>0.26149914821124365</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="17">(K28/J28)-1</f>
+        <v>0.51586765698852122</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="18">(L28/K28)-1</f>
+        <v>0.81113585746102457</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="19">(M28/L28)-1</f>
+        <v>0.56763403836694537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3885,8 +4004,28 @@
       <c r="H30" s="2">
         <v>-0.1983</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="I30" s="58">
+        <f>I28/I3</f>
+        <v>9.1575663026521065E-2</v>
+      </c>
+      <c r="J30" s="58">
+        <f t="shared" ref="J30:M30" si="20">J28/J3</f>
+        <v>8.8788968824940043E-2</v>
+      </c>
+      <c r="K30" s="58">
+        <f t="shared" si="20"/>
+        <v>0.10437006043700604</v>
+      </c>
+      <c r="L30" s="58">
+        <f t="shared" si="20"/>
+        <v>0.1360776439089692</v>
+      </c>
+      <c r="M30" s="58">
+        <f t="shared" si="20"/>
+        <v>0.16664052287581699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3912,7 +4051,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3995,28 +4134,28 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>5.7992937865010405E-2</v>
       </c>
-      <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="9">(D34-C34)/C34</f>
+      <c r="D35" s="22">
+        <f t="shared" ref="D35:F35" si="21">(D34-C34)/C34</f>
         <v>-5.48141067765896E-2</v>
       </c>
-      <c r="E35" s="23">
-        <f t="shared" si="9"/>
+      <c r="E35" s="22">
+        <f t="shared" si="21"/>
         <v>-0.38351269583098069</v>
       </c>
-      <c r="F35" s="23">
-        <f t="shared" si="9"/>
+      <c r="F35" s="22">
+        <f t="shared" si="21"/>
         <v>1.0489521960821839</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" ref="G35" si="10">(G34-F34)/F34</f>
+      <c r="G35" s="22">
+        <f t="shared" ref="G35" si="22">(G34-F34)/F34</f>
         <v>4.9267114559634922E-2</v>
       </c>
-      <c r="H35" s="23">
-        <f t="shared" ref="H35" si="11">(H34-G34)/G34</f>
+      <c r="H35" s="22">
+        <f t="shared" ref="H35" si="23">(H34-G34)/G34</f>
         <v>3.7479772240997258E-2</v>
       </c>
     </row>
@@ -5169,31 +5308,31 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:H80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:H80" si="24">B79/B3</f>
         <v>6.7224115767003573E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.0420264611051404E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.14193404403292609</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.12761042707527645</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.1306874464980432</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.13731326912706079</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.20792501545771763</v>
       </c>
     </row>
@@ -5274,10 +5413,10 @@
       <c r="H83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O83" s="62" t="s">
+      <c r="O83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="P83" s="63"/>
+      <c r="P83" s="68"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5304,10 +5443,10 @@
       <c r="H84" s="1">
         <v>-9605000</v>
       </c>
-      <c r="O84" s="64" t="s">
+      <c r="O84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="P84" s="65"/>
+      <c r="P84" s="70"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5334,10 +5473,10 @@
       <c r="H85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O85" s="24" t="s">
+      <c r="O85" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="P85" s="25">
+      <c r="P85" s="24">
         <f>H17</f>
         <v>4984000</v>
       </c>
@@ -5367,10 +5506,10 @@
       <c r="H86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O86" s="24" t="s">
+      <c r="O86" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="P86" s="25">
+      <c r="P86" s="24">
         <f>H56</f>
         <v>33275000</v>
       </c>
@@ -5400,10 +5539,10 @@
       <c r="H87" s="10">
         <v>123595000</v>
       </c>
-      <c r="O87" s="24" t="s">
+      <c r="O87" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="P87" s="25">
+      <c r="P87" s="24">
         <f>H61</f>
         <v>1543816000</v>
       </c>
@@ -5433,10 +5572,10 @@
       <c r="H88" s="1">
         <v>-143606000</v>
       </c>
-      <c r="O88" s="34" t="s">
+      <c r="O88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="P88" s="35">
+      <c r="P88" s="32">
         <f>P85/(P86+P87)</f>
         <v>3.1602488378920431E-3</v>
       </c>
@@ -5446,37 +5585,37 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:H89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:H89" si="25">(-1*B88)/B3</f>
         <v>0.18749631446733733</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.14105918541303783</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.13217143984139013</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.15082119140693048</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.13078256108792533</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.14165496186927393</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>0.14725180750194056</v>
       </c>
-      <c r="O89" s="24" t="s">
+      <c r="O89" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="P89" s="25">
+      <c r="P89" s="24">
         <f>H27</f>
         <v>2648000</v>
       </c>
@@ -5506,10 +5645,10 @@
       <c r="H90" s="1">
         <v>-88187000</v>
       </c>
-      <c r="O90" s="24" t="s">
+      <c r="O90" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="25">
+      <c r="P90" s="24">
         <f>H25</f>
         <v>-190733000</v>
       </c>
@@ -5539,10 +5678,10 @@
       <c r="H91" s="1">
         <v>-1132951000</v>
       </c>
-      <c r="O91" s="34" t="s">
+      <c r="O91" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="P91" s="35">
+      <c r="P91" s="32">
         <f>P89/P90</f>
         <v>-1.388328186522521E-2</v>
       </c>
@@ -5572,10 +5711,10 @@
       <c r="H92" s="1">
         <v>1148770000</v>
       </c>
-      <c r="O92" s="36" t="s">
+      <c r="O92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="P92" s="37">
+      <c r="P92" s="34">
         <f>P88*(1-P91)</f>
         <v>3.2041234632727488E-3</v>
       </c>
@@ -5605,10 +5744,10 @@
       <c r="H93" s="1">
         <v>-19722000</v>
       </c>
-      <c r="O93" s="64" t="s">
+      <c r="O93" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="P93" s="65"/>
+      <c r="P93" s="70"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5635,10 +5774,10 @@
       <c r="H94" s="10">
         <v>-235696000</v>
       </c>
-      <c r="O94" s="24" t="s">
+      <c r="O94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="P94" s="38">
+      <c r="P94" s="35">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5667,12 +5806,12 @@
       <c r="H95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O95" s="24" t="s">
+      <c r="O95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="P95" s="39" cm="1">
+      <c r="P95" s="36" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.0204</v>
+        <v>0.98119999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5700,10 +5839,10 @@
       <c r="H96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O96" s="24" t="s">
+      <c r="O96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="P96" s="38">
+      <c r="P96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5732,12 +5871,12 @@
       <c r="H97" s="1">
         <v>-3000</v>
       </c>
-      <c r="O97" s="36" t="s">
+      <c r="O97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="P97" s="37">
+      <c r="P97" s="34">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.4878220000000004E-2</v>
+        <v>8.319066E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5765,10 +5904,10 @@
       <c r="H98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O98" s="64" t="s">
+      <c r="O98" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="P98" s="65"/>
+      <c r="P98" s="70"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5795,10 +5934,10 @@
       <c r="H99" s="1">
         <v>6350000</v>
       </c>
-      <c r="O99" s="24" t="s">
+      <c r="O99" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="P99" s="25">
+      <c r="P99" s="24">
         <f>P86+P87</f>
         <v>1577091000</v>
       </c>
@@ -5828,12 +5967,12 @@
       <c r="H100" s="10">
         <v>6347000</v>
       </c>
-      <c r="O100" s="34" t="s">
+      <c r="O100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="P100" s="35">
+      <c r="P100" s="32">
         <f>P99/P103</f>
-        <v>7.0580413105243212E-2</v>
+        <v>7.568365915267028E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5861,12 +6000,12 @@
       <c r="H101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O101" s="24" t="s">
+      <c r="O101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="P101" s="40" cm="1">
+      <c r="P101" s="37" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20767507602</v>
+        <v>19260841754</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5894,12 +6033,12 @@
       <c r="H102" s="10">
         <v>-105754000</v>
       </c>
-      <c r="O102" s="34" t="s">
+      <c r="O102" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="P102" s="35">
+      <c r="P102" s="32">
         <f>P101/P103</f>
-        <v>0.92941958689475679</v>
+        <v>0.92431634084732972</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5927,12 +6066,12 @@
       <c r="H103" s="1">
         <v>320958000</v>
       </c>
-      <c r="O103" s="36" t="s">
+      <c r="O103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="P103" s="41">
+      <c r="P103" s="38">
         <f>P99+P101</f>
-        <v>22344598602</v>
+        <v>20837932754</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5960,10 +6099,10 @@
       <c r="H104" s="11">
         <v>215204000</v>
       </c>
-      <c r="O104" s="64" t="s">
+      <c r="O104" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="P104" s="65"/>
+      <c r="P104" s="70"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5987,25 +6126,35 @@
         <v>-4.2673292028774568E-2</v>
       </c>
       <c r="G105" s="15">
-        <f t="shared" ref="G105:H105" si="14">(G106/F106)-1</f>
+        <f t="shared" ref="G105:H105" si="26">(G106/F106)-1</f>
         <v>-0.53209325558415044</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-7.7071246228823442E-2</v>
       </c>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
+      <c r="I105" s="60">
+        <v>86291000</v>
+      </c>
+      <c r="J105" s="60">
+        <v>99453000</v>
+      </c>
+      <c r="K105" s="60">
+        <v>153200000</v>
+      </c>
+      <c r="L105" s="60">
+        <v>316100000</v>
+      </c>
+      <c r="M105" s="60">
+        <v>436700000</v>
+      </c>
       <c r="N105" s="15"/>
-      <c r="O105" s="26" t="s">
+      <c r="O105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="26">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.9113628526440286E-2</v>
+        <v>7.7136986231951726E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6033,35 +6182,35 @@
       <c r="H106" s="1">
         <v>-39769000</v>
       </c>
-      <c r="I106" s="42">
+      <c r="I106" s="39">
         <f>H106*(1+$P$106)</f>
-        <v>-54751835.95486749</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" ref="J106:M106" si="15">I106*(1+$P$106)</f>
-        <v>-75379404.572122008</v>
-      </c>
-      <c r="K106" s="42">
-        <f t="shared" si="15"/>
-        <v>-103778339.7497652</v>
-      </c>
-      <c r="L106" s="42">
-        <f t="shared" si="15"/>
-        <v>-142876477.49874645</v>
-      </c>
-      <c r="M106" s="42">
-        <f t="shared" si="15"/>
-        <v>-196704706.12337956</v>
-      </c>
-      <c r="N106" s="43" t="s">
+        <v>-52291853.058278427</v>
+      </c>
+      <c r="J106" s="39">
+        <f t="shared" ref="J106:M106" si="27">I106*(1+$P$106)</f>
+        <v>-68758025.001095906</v>
+      </c>
+      <c r="K106" s="39">
+        <f t="shared" si="27"/>
+        <v>-90409226.783040598</v>
+      </c>
+      <c r="L106" s="39">
+        <f t="shared" si="27"/>
+        <v>-118878171.4916475</v>
+      </c>
+      <c r="M106" s="39">
+        <f t="shared" si="27"/>
+        <v>-156311696.93676114</v>
+      </c>
+      <c r="N106" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="O106" s="44" t="s">
+      <c r="O106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="P106" s="45">
+      <c r="P106" s="42">
         <f>(SUM(I4:M4)/5)</f>
-        <v>0.37674661054759967</v>
+        <v>0.31488981513939063</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6073,139 +6222,139 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="46">
-        <f>M106*(1+P107)/(P108-P107)</f>
-        <v>-3725906564.8859601</v>
-      </c>
-      <c r="N107" s="47" t="s">
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="59">
+        <f>M105*(1+P107)/(P108-P107)</f>
+        <v>8585411861.1420851</v>
+      </c>
+      <c r="N107" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="O107" s="48" t="s">
+      <c r="O107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="P107" s="49">
+      <c r="P107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="46">
-        <f t="shared" ref="I108:K108" si="16">I107+I106</f>
-        <v>-54751835.95486749</v>
-      </c>
-      <c r="J108" s="46">
-        <f t="shared" si="16"/>
-        <v>-75379404.572122008</v>
-      </c>
-      <c r="K108" s="46">
-        <f t="shared" si="16"/>
-        <v>-103778339.7497652</v>
-      </c>
-      <c r="L108" s="46">
+      <c r="I108" s="43">
+        <f t="shared" ref="I108:K108" si="28">I107+I106</f>
+        <v>-52291853.058278427</v>
+      </c>
+      <c r="J108" s="43">
+        <f t="shared" si="28"/>
+        <v>-68758025.001095906</v>
+      </c>
+      <c r="K108" s="43">
+        <f t="shared" si="28"/>
+        <v>-90409226.783040598</v>
+      </c>
+      <c r="L108" s="43">
         <f>L107+L106</f>
-        <v>-142876477.49874645</v>
-      </c>
-      <c r="M108" s="46">
-        <f>M107+M106</f>
-        <v>-3922611271.0093398</v>
-      </c>
-      <c r="N108" s="47" t="s">
+        <v>-118878171.4916475</v>
+      </c>
+      <c r="M108" s="59">
+        <f>M107+M105</f>
+        <v>9022111861.142086</v>
+      </c>
+      <c r="N108" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="O108" s="50" t="s">
+      <c r="O108" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="P108" s="51">
+      <c r="P108" s="48">
         <f>P105</f>
-        <v>7.9113628526440286E-2</v>
+        <v>7.7136986231951726E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="60" t="s">
+      <c r="I109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="J109" s="61"/>
+      <c r="J109" s="66"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="52" t="s">
+      <c r="I110" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="J110" s="40">
+      <c r="J110" s="37">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>-2984064892.2987823</v>
+        <v>5953871701.9793901</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="52" t="s">
+      <c r="I111" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="J111" s="40">
+      <c r="J111" s="37">
         <f>H40</f>
         <v>1649937000</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="52" t="s">
+      <c r="I112" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="J112" s="40">
+      <c r="J112" s="37">
         <f>P99</f>
         <v>1577091000</v>
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="52" t="s">
+      <c r="I113" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="J113" s="40">
+      <c r="J113" s="37">
         <f>J110+J111-J112</f>
-        <v>-2911218892.2987823</v>
+        <v>6026717701.9793901</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="J114" s="53">
-        <f>H34*(1+(5*N16))</f>
-        <v>553906890.9667815</v>
+      <c r="I114" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="J114" s="50" cm="1">
+        <f t="array" ref="J114">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>331911800</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="54" t="s">
+      <c r="I115" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J115" s="59">
+      <c r="J115" s="56">
         <f>J113/J114</f>
-        <v>-5.2557910720655245</v>
+        <v>18.157587955533337</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="52" t="s">
+      <c r="I116" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="J116" s="55" cm="1">
+      <c r="J116" s="52" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>62.87</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="56" t="s">
+      <c r="I117" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="J117" s="57">
+      <c r="J117" s="54">
         <f>J115/J116-1</f>
-        <v>-1.0835977584231831</v>
+        <v>-0.6870999835338043</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="56" t="s">
+      <c r="I118" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="J118" s="58" t="str">
+      <c r="J118" s="55" t="str">
         <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71911670-183E-C446-AD5D-93B8277B5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA2235-A41D-D24F-BD12-4156CE197729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,6 +1026,7 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,7 +1045,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2262,9 +2262,11 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>0.98119999999999996</v>
-    <v>1.8</v>
-    <v>3.2010999999999998E-2</v>
+    <v>1.0079</v>
+    <v>3.11</v>
+    <v>5.3593000000000002E-2</v>
+    <v>-0.12</v>
+    <v>-1.9629999999999999E-3</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2272,23 +2274,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>58.895000000000003</v>
+    <v>62.98</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.99967657344</v>
+    <v>45072.999958193752</v>
     <v>0</v>
-    <v>57.31</v>
-    <v>19260841754</v>
+    <v>57.21</v>
+    <v>20293090000</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>57.93</v>
-    <v>56.23</v>
+    <v>57.76</v>
     <v>58.03</v>
+    <v>61.14</v>
+    <v>61.02</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>5700194</v>
-    <v>7429709</v>
+    <v>7207618</v>
+    <v>7507029</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2320,6 +2323,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2339,6 +2344,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2355,7 +2361,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2366,13 +2372,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2436,13 +2445,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2486,6 +2501,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2493,6 +2511,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2854,10 +2875,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,15 +3532,15 @@
       </c>
       <c r="O16" s="61">
         <f>P101/H3</f>
-        <v>19.749827738989644</v>
+        <v>20.808282260487406</v>
       </c>
       <c r="P16" s="61">
         <f>P101/H28</f>
-        <v>-99.600486883406333</v>
+        <v>-104.93838588072251</v>
       </c>
       <c r="Q16" s="63">
         <f>P101/H106</f>
-        <v>-484.31798018557168</v>
+        <v>-510.27408282833363</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3629,11 +3650,11 @@
       </c>
       <c r="O19" s="64">
         <f>P101/I3</f>
-        <v>15.024057530421217</v>
-      </c>
-      <c r="P19" s="61">
+        <v>15.829243369734789</v>
+      </c>
+      <c r="P19" s="64">
         <f>P101/I28</f>
-        <v>164.0616844463373</v>
+        <v>172.85425894378193</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,19 +3934,19 @@
       <c r="H28" s="11">
         <v>-193381000</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="65">
         <v>117400000</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="65">
         <v>148100000</v>
       </c>
-      <c r="K28" s="71">
+      <c r="K28" s="65">
         <v>224500000</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L28" s="65">
         <v>406600000</v>
       </c>
-      <c r="M28" s="71">
+      <c r="M28" s="65">
         <v>637400000</v>
       </c>
     </row>
@@ -5413,10 +5434,10 @@
       <c r="H83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O83" s="67" t="s">
+      <c r="O83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="P83" s="68"/>
+      <c r="P83" s="69"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5443,10 +5464,10 @@
       <c r="H84" s="1">
         <v>-9605000</v>
       </c>
-      <c r="O84" s="69" t="s">
+      <c r="O84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="P84" s="70"/>
+      <c r="P84" s="71"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5744,10 +5765,10 @@
       <c r="H93" s="1">
         <v>-19722000</v>
       </c>
-      <c r="O93" s="69" t="s">
+      <c r="O93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="P93" s="70"/>
+      <c r="P93" s="71"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5811,7 +5832,7 @@
       </c>
       <c r="P95" s="36" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.98119999999999996</v>
+        <v>1.0079</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5876,7 +5897,7 @@
       </c>
       <c r="P97" s="34">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.319066E-2</v>
+        <v>8.4340095000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5904,10 +5925,10 @@
       <c r="H98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O98" s="69" t="s">
+      <c r="O98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="P98" s="70"/>
+      <c r="P98" s="71"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5972,7 +5993,7 @@
       </c>
       <c r="P100" s="32">
         <f>P99/P103</f>
-        <v>7.568365915267028E-2</v>
+        <v>7.2111474523233257E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6005,7 +6026,7 @@
       </c>
       <c r="P101" s="37" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19260841754</v>
+        <v>20293090000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6038,7 +6059,7 @@
       </c>
       <c r="P102" s="32">
         <f>P101/P103</f>
-        <v>0.92431634084732972</v>
+        <v>0.9278885254767667</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6071,7 +6092,7 @@
       </c>
       <c r="P103" s="38">
         <f>P99+P101</f>
-        <v>20837932754</v>
+        <v>21870181000</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6099,10 +6120,10 @@
       <c r="H104" s="11">
         <v>215204000</v>
       </c>
-      <c r="O104" s="69" t="s">
+      <c r="O104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="P104" s="70"/>
+      <c r="P104" s="71"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6154,7 +6175,7 @@
       </c>
       <c r="P105" s="26">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.7136986231951726E-2</v>
+        <v>7.8489260455611512E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6228,7 +6249,7 @@
       <c r="L107" s="40"/>
       <c r="M107" s="59">
         <f>M105*(1+P107)/(P108-P107)</f>
-        <v>8585411861.1420851</v>
+        <v>8368362100.8643198</v>
       </c>
       <c r="N107" s="44" t="s">
         <v>148</v>
@@ -6259,7 +6280,7 @@
       </c>
       <c r="M108" s="59">
         <f>M107+M105</f>
-        <v>9022111861.142086</v>
+        <v>8805062100.8643188</v>
       </c>
       <c r="N108" s="44" t="s">
         <v>144</v>
@@ -6269,14 +6290,14 @@
       </c>
       <c r="P108" s="48">
         <f>P105</f>
-        <v>7.7136986231951726E-2</v>
+        <v>7.8489260455611512E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="65" t="s">
+      <c r="I109" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="J109" s="66"/>
+      <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="I110" s="49" t="s">
@@ -6284,7 +6305,7 @@
       </c>
       <c r="J110" s="37">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>5953871701.9793901</v>
+        <v>5767125034.361989</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6311,7 +6332,7 @@
       </c>
       <c r="J113" s="37">
         <f>J110+J111-J112</f>
-        <v>6026717701.9793901</v>
+        <v>5839971034.361989</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6329,7 +6350,7 @@
       </c>
       <c r="J115" s="56">
         <f>J113/J114</f>
-        <v>18.157587955533337</v>
+        <v>17.594948520546691</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6338,7 +6359,7 @@
       </c>
       <c r="J116" s="52" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>58.03</v>
+        <v>61.14</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6347,7 +6368,7 @@
       </c>
       <c r="J117" s="54">
         <f>J115/J116-1</f>
-        <v>-0.6870999835338043</v>
+        <v>-0.71221870264071496</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA2235-A41D-D24F-BD12-4156CE197729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94036B5F-8E4A-8B49-B1A8-DECCE9605F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -552,10 +546,28 @@
     <t>Forward P/S</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -978,7 +990,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,6 +1038,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,11 +1329,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,7 +1373,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$H$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2140,6 +2154,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2262,11 +2336,9 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>1.0079</v>
-    <v>3.11</v>
-    <v>5.3593000000000002E-2</v>
-    <v>-0.12</v>
-    <v>-1.9629999999999999E-3</v>
+    <v>0.9476</v>
+    <v>1.01</v>
+    <v>1.5783999999999999E-2</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2274,24 +2346,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>62.98</v>
+    <v>65.55</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999958193752</v>
+    <v>45099.998405543753</v>
     <v>0</v>
-    <v>57.21</v>
-    <v>20293090000</v>
+    <v>62.56</v>
+    <v>21574267000</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>57.76</v>
-    <v>58.03</v>
-    <v>61.14</v>
-    <v>61.02</v>
+    <v>62.884999999999998</v>
+    <v>63.99</v>
+    <v>65</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>7207618</v>
-    <v>7507029</v>
+    <v>2137</v>
+    <v>5903580</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2323,8 +2394,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2344,7 +2413,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2361,7 +2429,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2372,16 +2440,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2445,19 +2510,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2501,9 +2560,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2511,9 +2567,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2875,10 +2928,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2934,34 +2987,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -3011,21 +3064,21 @@
         <v>3825000000</v>
       </c>
       <c r="N3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3085,7 +3138,7 @@
         <v>0.35051427507247584</v>
       </c>
       <c r="Q4" s="17">
-        <f>(H105+G105+F105)/3</f>
+        <f>(H106+G106+F106)/3</f>
         <v>-0.21727926461391614</v>
       </c>
       <c r="Y4" s="16"/>
@@ -3153,16 +3206,16 @@
         <v>742631000</v>
       </c>
       <c r="N6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="Q6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3203,7 +3256,7 @@
         <v>-0.1983</v>
       </c>
       <c r="Q7" s="21">
-        <f>H106/H3</f>
+        <f>H107/H3</f>
         <v>-4.0778638305813637E-2</v>
       </c>
     </row>
@@ -3235,7 +3288,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3268,16 +3321,16 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="N9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3374,21 +3427,21 @@
         <v>645531000</v>
       </c>
       <c r="N12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3432,7 +3485,7 @@
         <f>H22/(H72+H56+H61)</f>
         <v>-9.1412072846884795E-2</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="61">
         <f>H67/H72</f>
         <v>3.1475277419851144</v>
       </c>
@@ -3442,25 +3495,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3489,16 +3542,16 @@
         <v>943834000</v>
       </c>
       <c r="N15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3530,20 +3583,20 @@
         <f>(H35+G35+F35+E35+D35)/5</f>
         <v>0.13947445605504918</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="60">
         <f>P101/H3</f>
-        <v>20.808282260487406</v>
-      </c>
-      <c r="P16" s="61">
+        <v>22.121985232368203</v>
+      </c>
+      <c r="P16" s="60">
         <f>P101/H28</f>
-        <v>-104.93838588072251</v>
-      </c>
-      <c r="Q16" s="63">
-        <f>P101/H106</f>
-        <v>-510.27408282833363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>-111.56353002621768</v>
+      </c>
+      <c r="Q16" s="62">
+        <f>P101/H107</f>
+        <v>-542.48955216374566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3569,7 +3622,7 @@
         <v>4984000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3595,16 +3648,19 @@
         <v>102072000</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3629,37 +3685,41 @@
       <c r="H19" s="10">
         <v>-83677000</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="56">
         <v>204300000</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="56">
         <v>265600000</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="56">
         <v>379000000</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="56">
         <v>384000000</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="56">
         <v>528000000</v>
       </c>
       <c r="N19" s="30">
         <f>H40-H56-H61</f>
         <v>72846000</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="63">
         <f>P101/I3</f>
-        <v>15.829243369734789</v>
-      </c>
-      <c r="P19" s="64">
+        <v>16.828601404056162</v>
+      </c>
+      <c r="P19" s="63">
         <f>P101/I28</f>
-        <v>172.85425894378193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183.76718057921636</v>
+      </c>
+      <c r="Q19" s="62">
+        <f>P101/I105</f>
+        <v>-86.251975260302544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3707,7 +3767,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3732,28 +3792,28 @@
       <c r="H21" s="2">
         <v>-8.5800000000000001E-2</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <f>I19/I3</f>
         <v>0.15936037441497661</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="57">
         <f t="shared" ref="J21:M21" si="11">J19/J3</f>
         <v>0.15923261390887289</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="57">
         <f t="shared" si="11"/>
         <v>0.17619711761971177</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="57">
         <f t="shared" si="11"/>
         <v>0.12851405622489959</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="57">
         <f t="shared" si="11"/>
         <v>0.1380392156862745</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3839,7 @@
         <v>-201203000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3805,7 +3865,7 @@
         <v>-0.20630000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3831,7 +3891,7 @@
         <v>10470000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +3917,7 @@
         <v>-190733000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3883,7 +3943,7 @@
         <v>-0.1956</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3909,7 +3969,7 @@
         <v>2648000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3934,25 +3994,25 @@
       <c r="H28" s="11">
         <v>-193381000</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="64">
         <v>117400000</v>
       </c>
-      <c r="J28" s="65">
+      <c r="J28" s="64">
         <v>148100000</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="64">
         <v>224500000</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="64">
         <v>406600000</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <v>637400000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4000,7 +4060,7 @@
         <v>0.56763403836694537</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4025,28 +4085,28 @@
       <c r="H30" s="2">
         <v>-0.1983</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="57">
         <f>I28/I3</f>
         <v>9.1575663026521065E-2</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="57">
         <f t="shared" ref="J30:M30" si="20">J28/J3</f>
         <v>8.8788968824940043E-2</v>
       </c>
-      <c r="K30" s="58">
+      <c r="K30" s="57">
         <f t="shared" si="20"/>
         <v>0.10437006043700604</v>
       </c>
-      <c r="L30" s="58">
+      <c r="L30" s="57">
         <f t="shared" si="20"/>
         <v>0.1360776439089692</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="57">
         <f t="shared" si="20"/>
         <v>0.16664052287581699</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4072,7 +4132,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4152,7 +4212,7 @@
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4185,25 +4245,25 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -4211,25 +4271,25 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4237,7 +4297,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>24444000</v>
@@ -4263,7 +4323,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>48963000</v>
@@ -4289,7 +4349,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>73407000</v>
@@ -4315,7 +4375,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>15186000</v>
@@ -4341,25 +4401,25 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4367,7 +4427,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>3431000</v>
@@ -4393,7 +4453,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>92024000</v>
@@ -4419,7 +4479,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>51423000</v>
@@ -4445,7 +4505,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>4083000</v>
@@ -4471,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>673000</v>
@@ -4497,7 +4557,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>4756000</v>
@@ -4523,25 +4583,25 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4549,25 +4609,25 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4575,7 +4635,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>14940000</v>
@@ -4601,7 +4661,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>71119000</v>
@@ -4627,25 +4687,25 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4653,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>163143000</v>
@@ -4679,7 +4739,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>4725000</v>
@@ -4705,16 +4765,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>255000</v>
@@ -4731,25 +4791,25 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4757,7 +4817,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>11927000</v>
@@ -4783,7 +4843,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>10511000</v>
@@ -4809,7 +4869,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>27163000</v>
@@ -4835,16 +4895,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>255000</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>383275000</v>
@@ -4861,7 +4921,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>207000</v>
@@ -4887,25 +4947,25 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4913,7 +4973,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>195352000</v>
@@ -4939,7 +4999,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>195814000</v>
@@ -4965,25 +5025,25 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -4991,7 +5051,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>222977000</v>
@@ -5017,7 +5077,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>79000</v>
@@ -5043,7 +5103,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-108714000</v>
@@ -5069,7 +5129,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-27736000</v>
@@ -5095,7 +5155,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>76537000</v>
@@ -5121,7 +5181,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-59834000</v>
@@ -5147,7 +5207,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>163143000</v>
@@ -5173,25 +5233,25 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -5199,25 +5259,25 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -5326,7 +5386,7 @@
     </row>
     <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:H80" si="24">B79/B3</f>
@@ -5414,28 +5474,28 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P83" s="69"/>
     </row>
@@ -5465,7 +5525,7 @@
         <v>-9605000</v>
       </c>
       <c r="O84" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P84" s="71"/>
     </row>
@@ -5492,10 +5552,10 @@
         <v>8979000</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P85" s="24">
         <f>H17</f>
@@ -5525,10 +5585,10 @@
         <v>156086000</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O86" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P86" s="24">
         <f>H56</f>
@@ -5561,7 +5621,7 @@
         <v>123595000</v>
       </c>
       <c r="O87" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P87" s="24">
         <f>H61</f>
@@ -5594,7 +5654,7 @@
         <v>-143606000</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P88" s="32">
         <f>P85/(P86+P87)</f>
@@ -5603,7 +5663,7 @@
     </row>
     <row r="89" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:H89" si="25">(-1*B88)/B3</f>
@@ -5634,7 +5694,7 @@
         <v>0.14725180750194056</v>
       </c>
       <c r="O89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P89" s="24">
         <f>H27</f>
@@ -5646,16 +5706,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-13941000</v>
@@ -5700,7 +5760,7 @@
         <v>-1132951000</v>
       </c>
       <c r="O91" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P91" s="32">
         <f>P89/P90</f>
@@ -5733,7 +5793,7 @@
         <v>1148770000</v>
       </c>
       <c r="O92" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P92" s="34">
         <f>P88*(1-P91)</f>
@@ -5766,7 +5826,7 @@
         <v>-19722000</v>
       </c>
       <c r="O93" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P93" s="71"/>
     </row>
@@ -5796,10 +5856,11 @@
         <v>-235696000</v>
       </c>
       <c r="O94" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P94" s="35">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5825,14 +5886,14 @@
         <v>-370647000</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P95" s="36" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>1.0079</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5840,13 +5901,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>570544000</v>
@@ -5855,13 +5916,13 @@
         <v>10923000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P96" s="35">
         <v>8.4000000000000005E-2</v>
@@ -5893,11 +5954,11 @@
         <v>-3000</v>
       </c>
       <c r="O97" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P97" s="34">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.4340095000000004E-2</v>
+        <v>8.1549252000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5905,28 +5966,28 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P98" s="71"/>
     </row>
@@ -5956,7 +6017,7 @@
         <v>6350000</v>
       </c>
       <c r="O99" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P99" s="24">
         <f>P86+P87</f>
@@ -5989,11 +6050,11 @@
         <v>6347000</v>
       </c>
       <c r="O100" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P100" s="32">
         <f>P99/P103</f>
-        <v>7.2111474523233257E-2</v>
+        <v>6.8120885176584461E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6001,32 +6062,32 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P101" s="37" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20293090000</v>
+        <v>21574267000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6055,11 +6116,11 @@
         <v>-105754000</v>
       </c>
       <c r="O102" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P102" s="32">
         <f>P101/P103</f>
-        <v>0.9278885254767667</v>
+        <v>0.93187911482341557</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6088,11 +6149,11 @@
         <v>320958000</v>
       </c>
       <c r="O103" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P103" s="38">
         <f>P99+P101</f>
-        <v>21870181000</v>
+        <v>23151358000</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6121,113 +6182,122 @@
         <v>215204000</v>
       </c>
       <c r="O104" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P104" s="71"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.37859204417116321</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>2.9438610662358644</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.23138760880696374</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-4.2673292028774568E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f t="shared" ref="G105:H105" si="26">(G106/F106)-1</f>
-        <v>-0.53209325558415044</v>
-      </c>
-      <c r="H105" s="15">
+        <v>159</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:G105" si="26">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-32918200</v>
+      </c>
+      <c r="C105" s="1">
         <f t="shared" si="26"/>
-        <v>-7.7071246228823442E-2</v>
-      </c>
-      <c r="I105" s="60">
-        <v>86291000</v>
-      </c>
-      <c r="J105" s="60">
-        <v>99453000</v>
-      </c>
-      <c r="K105" s="60">
-        <v>153200000</v>
-      </c>
-      <c r="L105" s="60">
-        <v>316100000</v>
-      </c>
-      <c r="M105" s="60">
-        <v>436700000</v>
-      </c>
-      <c r="N105" s="15"/>
+        <v>-19872000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="26"/>
+        <v>-86070200</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="26"/>
+        <v>-113060800</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="26"/>
+        <v>-153466400</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="26"/>
+        <v>-125136200</v>
+      </c>
+      <c r="H105" s="1">
+        <f>(H22*(1-0.2))+H77+H88+H81</f>
+        <v>-190229400</v>
+      </c>
+      <c r="I105" s="39">
+        <f>H105*(1+$P$106)</f>
+        <v>-250130700.60007718</v>
+      </c>
+      <c r="J105" s="39">
+        <f t="shared" ref="J105:M105" si="27">I105*(1+$P$106)</f>
+        <v>-328894310.67272174</v>
+      </c>
+      <c r="K105" s="39">
+        <f t="shared" si="27"/>
+        <v>-432459779.36085242</v>
+      </c>
+      <c r="L105" s="39">
+        <f t="shared" si="27"/>
+        <v>-568636959.33901286</v>
+      </c>
+      <c r="M105" s="39">
+        <f t="shared" si="27"/>
+        <v>-747694946.34669983</v>
+      </c>
+      <c r="N105" s="40" t="s">
+        <v>162</v>
+      </c>
       <c r="O105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P105" s="26">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.8489260455611512E-2</v>
+        <v>7.6212312494804854E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-31876000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-19808000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-78120000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-96196000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-92091000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-43090000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-39769000</v>
-      </c>
-      <c r="I106" s="39">
-        <f>H106*(1+$P$106)</f>
-        <v>-52291853.058278427</v>
-      </c>
-      <c r="J106" s="39">
-        <f t="shared" ref="J106:M106" si="27">I106*(1+$P$106)</f>
-        <v>-68758025.001095906</v>
-      </c>
-      <c r="K106" s="39">
-        <f t="shared" si="27"/>
-        <v>-90409226.783040598</v>
-      </c>
-      <c r="L106" s="39">
-        <f t="shared" si="27"/>
-        <v>-118878171.4916475</v>
-      </c>
-      <c r="M106" s="39">
-        <f t="shared" si="27"/>
-        <v>-156311696.93676114</v>
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:H106" si="28">(C107/B107)-1</f>
+        <v>-0.37859204417116321</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="28"/>
+        <v>2.9438610662358644</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.23138760880696374</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="28"/>
+        <v>-4.2673292028774568E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.53209325558415044</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="28"/>
+        <v>-7.7071246228823442E-2</v>
+      </c>
+      <c r="I106" s="59">
+        <v>86499000</v>
+      </c>
+      <c r="J106" s="59">
+        <v>99979000</v>
+      </c>
+      <c r="K106" s="59">
+        <v>147000000</v>
+      </c>
+      <c r="L106" s="59">
+        <v>317900000</v>
+      </c>
+      <c r="M106" s="59">
+        <v>436700000</v>
       </c>
       <c r="N106" s="40" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O106" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P106" s="42">
         <f>(SUM(I4:M4)/5)</f>
@@ -6235,82 +6305,98 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
+      <c r="A107" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-31876000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-19808000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-78120000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-96196000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-92091000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-43090000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-39769000</v>
+      </c>
       <c r="I107" s="40"/>
       <c r="J107" s="40"/>
       <c r="K107" s="40"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="59">
-        <f>M105*(1+P107)/(P108-P107)</f>
-        <v>8368362100.8643198</v>
-      </c>
-      <c r="N107" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O107" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="P107" s="46">
+      <c r="M107" s="58">
+        <f>M106*(1+P107)/(P108-P107)</f>
+        <v>8740427412.7517242</v>
+      </c>
+      <c r="N107" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="O107" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="P107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="43">
-        <f t="shared" ref="I108:K108" si="28">I107+I106</f>
-        <v>-52291853.058278427</v>
-      </c>
-      <c r="J108" s="43">
-        <f t="shared" si="28"/>
-        <v>-68758025.001095906</v>
-      </c>
-      <c r="K108" s="43">
-        <f t="shared" si="28"/>
-        <v>-90409226.783040598</v>
-      </c>
-      <c r="L108" s="43">
-        <f>L107+L106</f>
-        <v>-118878171.4916475</v>
-      </c>
-      <c r="M108" s="59">
-        <f>M107+M105</f>
-        <v>8805062100.8643188</v>
-      </c>
-      <c r="N108" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="P108" s="48">
+      <c r="I108" s="58">
+        <f t="shared" ref="I108:L108" si="29">I107+I106</f>
+        <v>86499000</v>
+      </c>
+      <c r="J108" s="58">
+        <f t="shared" si="29"/>
+        <v>99979000</v>
+      </c>
+      <c r="K108" s="58">
+        <f t="shared" si="29"/>
+        <v>147000000</v>
+      </c>
+      <c r="L108" s="58">
+        <f t="shared" si="29"/>
+        <v>317900000</v>
+      </c>
+      <c r="M108" s="58">
+        <f>M107+M106</f>
+        <v>9177127412.7517242</v>
+      </c>
+      <c r="N108" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="O108" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="P108" s="47">
         <f>P105</f>
-        <v>7.8489260455611512E-2</v>
+        <v>7.6212312494804854E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="I109" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="49" t="s">
-        <v>152</v>
+      <c r="I110" s="48" t="s">
+        <v>149</v>
       </c>
       <c r="J110" s="37">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>5767125034.361989</v>
+        <v>6878080833.9727869</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="49" t="s">
-        <v>153</v>
+      <c r="I111" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="J111" s="37">
         <f>H40</f>
@@ -6318,8 +6404,8 @@
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="49" t="s">
-        <v>140</v>
+      <c r="I112" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="J112" s="37">
         <f>P99</f>
@@ -6327,55 +6413,55 @@
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="49" t="s">
-        <v>154</v>
+      <c r="I113" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="J113" s="37">
         <f>J110+J111-J112</f>
-        <v>5839971034.361989</v>
+        <v>6950926833.9727869</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J114" s="50" cm="1">
-        <f t="array" ref="J114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>331911800</v>
+      <c r="I114" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="J114" s="49">
+        <f>H34*(1+(5*0.05))</f>
+        <v>407915000</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="51" t="s">
+      <c r="I115" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="J115" s="55">
+        <f>J113/J114</f>
+        <v>17.04013540559378</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I116" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="J116" s="51" cm="1">
+        <f t="array" ref="J116">_FV(A1,"Price")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I117" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J117" s="53">
+        <f>J115/J116-1</f>
+        <v>-0.73784407068317259</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="I118" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="J115" s="56">
-        <f>J113/J114</f>
-        <v>17.594948520546691</v>
-      </c>
-    </row>
-    <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="J116" s="52" cm="1">
-        <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>61.14</v>
-      </c>
-    </row>
-    <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="J117" s="54">
-        <f>J115/J116-1</f>
-        <v>-0.71221870264071496</v>
-      </c>
-    </row>
-    <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="J118" s="55" t="str">
+      <c r="J118" s="54" t="str">
         <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6406,8 +6492,9 @@
     <hyperlink ref="H36" r:id="rId14" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="H74" r:id="rId15" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I1" r:id="rId16" display="https://finbox.com/NYSE:NET/explorer/revenue_proj" xr:uid="{EBEC148F-E718-AC46-AC4A-2395B0169C85}"/>
+    <hyperlink ref="N106" r:id="rId17" xr:uid="{BB71EA66-3294-2744-B0DC-B805978CCB86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94036B5F-8E4A-8B49-B1A8-DECCE9605F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D87006-55DA-5449-9462-EF2890F8CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -912,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1058,6 +1065,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2172,12 +2185,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2194,14 +2208,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2209,6 +2223,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2336,9 +2351,11 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>0.9476</v>
-    <v>1.01</v>
-    <v>1.5783999999999999E-2</v>
+    <v>0.95130000000000003</v>
+    <v>-0.23</v>
+    <v>-3.627E-3</v>
+    <v>0.28999999999999998</v>
+    <v>4.5889999999999993E-3</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2346,23 +2363,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>65.55</v>
+    <v>65.39</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998405543753</v>
+    <v>45103.935463726564</v>
     <v>0</v>
-    <v>62.56</v>
-    <v>21574267000</v>
+    <v>62.783999999999999</v>
+    <v>20970187524</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>62.884999999999998</v>
-    <v>63.99</v>
-    <v>65</v>
+    <v>63</v>
+    <v>63.41</v>
+    <v>63.18</v>
+    <v>63.48</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>2137</v>
-    <v>5903580</v>
+    <v>1942675</v>
+    <v>5770307</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2394,6 +2412,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2413,6 +2433,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2429,7 +2450,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2440,13 +2461,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2510,13 +2534,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2560,6 +2590,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2567,6 +2600,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2928,10 +2964,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H121" sqref="H121"/>
+      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3585,15 +3621,15 @@
       </c>
       <c r="O16" s="60">
         <f>P101/H3</f>
-        <v>22.121985232368203</v>
+        <v>21.502569645861893</v>
       </c>
       <c r="P16" s="60">
         <f>P101/H28</f>
-        <v>-111.56353002621768</v>
+        <v>-108.43975118548357</v>
       </c>
       <c r="Q16" s="62">
         <f>P101/H107</f>
-        <v>-542.48955216374566</v>
+        <v>-527.29984470316072</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3706,15 +3742,15 @@
       </c>
       <c r="O19" s="63">
         <f>P101/I3</f>
-        <v>16.828601404056162</v>
+        <v>16.357400564742591</v>
       </c>
       <c r="P19" s="63">
         <f>P101/I28</f>
-        <v>183.76718057921636</v>
+        <v>178.62169952299828</v>
       </c>
       <c r="Q19" s="62">
         <f>P101/I105</f>
-        <v>-86.251975260302544</v>
+        <v>-83.836919953014075</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3767,7 +3803,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3812,6 +3848,12 @@
         <f t="shared" si="11"/>
         <v>0.1380392156862745</v>
       </c>
+      <c r="P21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3837,6 +3879,14 @@
       </c>
       <c r="H22" s="10">
         <v>-201203000</v>
+      </c>
+      <c r="P22" s="72">
+        <f>(-1*H98)/P101</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="73">
+        <f>H107/P101</f>
+        <v>-1.8964541902396009E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5860,7 +5910,7 @@
       </c>
       <c r="P94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5893,7 +5943,7 @@
       </c>
       <c r="P95" s="36" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.9476</v>
+        <v>0.95130000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5958,7 +6008,7 @@
       </c>
       <c r="P97" s="34">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1549252000000003E-2</v>
+        <v>8.1730093000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5983,8 +6033,8 @@
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>91</v>
+      <c r="H98" s="1">
+        <v>0</v>
       </c>
       <c r="O98" s="70" t="s">
         <v>137</v>
@@ -6054,7 +6104,7 @@
       </c>
       <c r="P100" s="32">
         <f>P99/P103</f>
-        <v>6.8120885176584461E-2</v>
+        <v>6.9945958148399018E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6087,7 +6137,7 @@
       </c>
       <c r="P101" s="37" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21574267000</v>
+        <v>20970187524</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6120,7 +6170,7 @@
       </c>
       <c r="P102" s="32">
         <f>P101/P103</f>
-        <v>0.93187911482341557</v>
+        <v>0.93005404185160101</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6153,7 +6203,7 @@
       </c>
       <c r="P103" s="38">
         <f>P99+P101</f>
-        <v>23151358000</v>
+        <v>22547278524</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6246,7 +6296,7 @@
       </c>
       <c r="P105" s="26">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.6212312494804854E-2</v>
+        <v>7.6237518821221623E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6335,7 +6385,7 @@
       <c r="L107" s="40"/>
       <c r="M107" s="58">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8740427412.7517242</v>
+        <v>8736127554.5334396</v>
       </c>
       <c r="N107" s="43" t="s">
         <v>145</v>
@@ -6366,7 +6416,7 @@
       </c>
       <c r="M108" s="58">
         <f>M107+M106</f>
-        <v>9177127412.7517242</v>
+        <v>9172827554.5334396</v>
       </c>
       <c r="N108" s="43" t="s">
         <v>142</v>
@@ -6376,7 +6426,7 @@
       </c>
       <c r="P108" s="47">
         <f>P105</f>
-        <v>7.6212312494804854E-2</v>
+        <v>7.6237518821221623E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6391,7 +6441,7 @@
       </c>
       <c r="J110" s="37">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>6878080833.9727869</v>
+        <v>6874322165.2357216</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6418,7 +6468,7 @@
       </c>
       <c r="J113" s="37">
         <f>J110+J111-J112</f>
-        <v>6950926833.9727869</v>
+        <v>6947168165.2357216</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6436,7 +6486,7 @@
       </c>
       <c r="J115" s="55">
         <f>J113/J114</f>
-        <v>17.04013540559378</v>
+        <v>17.030921062563824</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6445,7 +6495,7 @@
       </c>
       <c r="J116" s="51" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>65</v>
+        <v>63.18</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6454,7 +6504,7 @@
       </c>
       <c r="J117" s="53">
         <f>J115/J116-1</f>
-        <v>-0.73784407068317259</v>
+        <v>-0.7304380965089613</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D87006-55DA-5449-9462-EF2890F8CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41AF3E-8048-7A46-912E-7D481543720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -919,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -961,78 +908,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,29 +941,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,7 +1050,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NET</a:t>
+              <a:t>Cloudflare</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2133,13 +2061,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2211,7 +2139,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2351,11 +2279,11 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>0.95130000000000003</v>
-    <v>-0.23</v>
-    <v>-3.627E-3</v>
-    <v>0.28999999999999998</v>
-    <v>4.5889999999999993E-3</v>
+    <v>0.94420000000000004</v>
+    <v>1.29</v>
+    <v>2.0131E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2363,24 +2291,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>65.39</v>
+    <v>66.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.935463726564</v>
+    <v>45107.997636921093</v>
     <v>0</v>
-    <v>62.783999999999999</v>
-    <v>20970187524</v>
+    <v>64.52</v>
+    <v>21697074366</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>63</v>
-    <v>63.41</v>
-    <v>63.18</v>
-    <v>63.48</v>
+    <v>65.319999999999993</v>
+    <v>64.08</v>
+    <v>65.37</v>
+    <v>65.37</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>1942675</v>
-    <v>5770307</v>
+    <v>2756064</v>
+    <v>5095036</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2542,9 +2470,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2964,10 +2892,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3002,19 +2930,19 @@
       <c r="H1" s="8">
         <v>2022</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="23">
         <v>2023</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="23">
         <v>2024</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="23">
         <v>2025</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="23">
         <v>2026</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3084,19 +3012,19 @@
       <c r="H3" s="1">
         <v>975241000</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <v>1282000000</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <v>1668000000</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="24">
         <v>2151000000</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="24">
         <v>2988000000</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="24">
         <v>3825000000</v>
       </c>
       <c r="N3" s="19" t="s">
@@ -3521,7 +3449,7 @@
         <f>H22/(H72+H56+H61)</f>
         <v>-9.1412072846884795E-2</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="35">
         <f>H67/H72</f>
         <v>3.1475277419851144</v>
       </c>
@@ -3615,21 +3543,21 @@
       <c r="H16" s="1">
         <v>1176444000</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="25">
         <f>(H35+G35+F35+E35+D35)/5</f>
         <v>0.13947445605504918</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="34">
         <f>P101/H3</f>
-        <v>21.502569645861893</v>
-      </c>
-      <c r="P16" s="60">
+        <v>22.247910379075531</v>
+      </c>
+      <c r="P16" s="34">
         <f>P101/H28</f>
-        <v>-108.43975118548357</v>
-      </c>
-      <c r="Q16" s="62">
+        <v>-112.19858396636691</v>
+      </c>
+      <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>-527.29984470316072</v>
+        <v>-545.5775696145239</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3721,36 +3649,36 @@
       <c r="H19" s="10">
         <v>-83677000</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="30">
         <v>204300000</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="30">
         <v>265600000</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="30">
         <v>379000000</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="30">
         <v>384000000</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="30">
         <v>528000000</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="26">
         <f>H40-H56-H61</f>
         <v>72846000</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="37">
         <f>P101/I3</f>
-        <v>16.357400564742591</v>
-      </c>
-      <c r="P19" s="63">
+        <v>16.924394981279253</v>
+      </c>
+      <c r="P19" s="37">
         <f>P101/I28</f>
-        <v>178.62169952299828</v>
-      </c>
-      <c r="Q19" s="62">
+        <v>184.81323991482111</v>
+      </c>
+      <c r="Q19" s="36">
         <f>P101/I105</f>
-        <v>-83.836919953014075</v>
+        <v>-86.742948042553493</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3828,23 +3756,23 @@
       <c r="H21" s="2">
         <v>-8.5800000000000001E-2</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="31">
         <f>I19/I3</f>
         <v>0.15936037441497661</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="31">
         <f t="shared" ref="J21:M21" si="11">J19/J3</f>
         <v>0.15923261390887289</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="31">
         <f t="shared" si="11"/>
         <v>0.17619711761971177</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="31">
         <f t="shared" si="11"/>
         <v>0.12851405622489959</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="31">
         <f t="shared" si="11"/>
         <v>0.1380392156862745</v>
       </c>
@@ -3880,13 +3808,13 @@
       <c r="H22" s="10">
         <v>-201203000</v>
       </c>
-      <c r="P22" s="72">
+      <c r="P22" s="40">
         <f>(-1*H98)/P101</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="73">
+      <c r="Q22" s="41">
         <f>H107/P101</f>
-        <v>-1.8964541902396009E-3</v>
+        <v>-1.8329199287033498E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4044,19 +3972,19 @@
       <c r="H28" s="11">
         <v>-193381000</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="38">
         <v>117400000</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="38">
         <v>148100000</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="38">
         <v>224500000</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="38">
         <v>406600000</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="38">
         <v>637400000</v>
       </c>
     </row>
@@ -4135,23 +4063,23 @@
       <c r="H30" s="2">
         <v>-0.1983</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="31">
         <f>I28/I3</f>
         <v>9.1575663026521065E-2</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="31">
         <f t="shared" ref="J30:M30" si="20">J28/J3</f>
         <v>8.8788968824940043E-2</v>
       </c>
-      <c r="K30" s="57">
+      <c r="K30" s="31">
         <f t="shared" si="20"/>
         <v>0.10437006043700604</v>
       </c>
-      <c r="L30" s="57">
+      <c r="L30" s="31">
         <f t="shared" si="20"/>
         <v>0.1360776439089692</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="31">
         <f t="shared" si="20"/>
         <v>0.16664052287581699</v>
       </c>
@@ -5544,10 +5472,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="68" t="s">
+      <c r="O83" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="P83" s="69"/>
+      <c r="P83" s="65"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5574,10 +5502,10 @@
       <c r="H84" s="1">
         <v>-9605000</v>
       </c>
-      <c r="O84" s="70" t="s">
+      <c r="O84" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="P84" s="71"/>
+      <c r="P84" s="66"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5604,10 +5532,10 @@
       <c r="H85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O85" s="23" t="s">
+      <c r="O85" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="P85" s="24">
+      <c r="P85" s="43">
         <f>H17</f>
         <v>4984000</v>
       </c>
@@ -5637,10 +5565,10 @@
       <c r="H86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O86" s="23" t="s">
+      <c r="O86" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="P86" s="24">
+      <c r="P86" s="43">
         <f>H56</f>
         <v>33275000</v>
       </c>
@@ -5670,10 +5598,10 @@
       <c r="H87" s="10">
         <v>123595000</v>
       </c>
-      <c r="O87" s="23" t="s">
+      <c r="O87" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="P87" s="24">
+      <c r="P87" s="43">
         <f>H61</f>
         <v>1543816000</v>
       </c>
@@ -5703,10 +5631,10 @@
       <c r="H88" s="1">
         <v>-143606000</v>
       </c>
-      <c r="O88" s="31" t="s">
+      <c r="O88" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="P88" s="32">
+      <c r="P88" s="45">
         <f>P85/(P86+P87)</f>
         <v>3.1602488378920431E-3</v>
       </c>
@@ -5743,10 +5671,10 @@
         <f t="shared" si="25"/>
         <v>0.14725180750194056</v>
       </c>
-      <c r="O89" s="23" t="s">
+      <c r="O89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P89" s="24">
+      <c r="P89" s="43">
         <f>H27</f>
         <v>2648000</v>
       </c>
@@ -5776,10 +5704,10 @@
       <c r="H90" s="1">
         <v>-88187000</v>
       </c>
-      <c r="O90" s="23" t="s">
+      <c r="O90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="24">
+      <c r="P90" s="43">
         <f>H25</f>
         <v>-190733000</v>
       </c>
@@ -5809,10 +5737,10 @@
       <c r="H91" s="1">
         <v>-1132951000</v>
       </c>
-      <c r="O91" s="31" t="s">
+      <c r="O91" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="P91" s="32">
+      <c r="P91" s="45">
         <f>P89/P90</f>
         <v>-1.388328186522521E-2</v>
       </c>
@@ -5842,10 +5770,10 @@
       <c r="H92" s="1">
         <v>1148770000</v>
       </c>
-      <c r="O92" s="33" t="s">
+      <c r="O92" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="P92" s="34">
+      <c r="P92" s="45">
         <f>P88*(1-P91)</f>
         <v>3.2041234632727488E-3</v>
       </c>
@@ -5875,10 +5803,10 @@
       <c r="H93" s="1">
         <v>-19722000</v>
       </c>
-      <c r="O93" s="70" t="s">
+      <c r="O93" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="P93" s="71"/>
+      <c r="P93" s="66"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5905,12 +5833,12 @@
       <c r="H94" s="10">
         <v>-235696000</v>
       </c>
-      <c r="O94" s="23" t="s">
+      <c r="O94" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="P94" s="35">
+      <c r="P94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5938,12 +5866,12 @@
       <c r="H95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O95" s="23" t="s">
+      <c r="O95" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="P95" s="36" cm="1">
+      <c r="P95" s="47" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.95130000000000003</v>
+        <v>0.94420000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5971,10 +5899,10 @@
       <c r="H96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O96" s="23" t="s">
+      <c r="O96" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="P96" s="35">
+      <c r="P96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6003,12 +5931,12 @@
       <c r="H97" s="1">
         <v>-3000</v>
       </c>
-      <c r="O97" s="33" t="s">
+      <c r="O97" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="P97" s="34">
+      <c r="P97" s="45">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1730093000000004E-2</v>
+        <v>8.1463331999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6036,10 +5964,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="70" t="s">
+      <c r="O98" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="P98" s="71"/>
+      <c r="P98" s="66"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6066,10 +5994,10 @@
       <c r="H99" s="1">
         <v>6350000</v>
       </c>
-      <c r="O99" s="23" t="s">
+      <c r="O99" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="P99" s="24">
+      <c r="P99" s="43">
         <f>P86+P87</f>
         <v>1577091000</v>
       </c>
@@ -6099,12 +6027,12 @@
       <c r="H100" s="10">
         <v>6347000</v>
       </c>
-      <c r="O100" s="31" t="s">
+      <c r="O100" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="P100" s="32">
+      <c r="P100" s="45">
         <f>P99/P103</f>
-        <v>6.9945958148399018E-2</v>
+        <v>6.7761441718717397E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6132,12 +6060,12 @@
       <c r="H101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O101" s="23" t="s">
+      <c r="O101" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="P101" s="37" cm="1">
+      <c r="P101" s="48" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20970187524</v>
+        <v>21697074366</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6165,12 +6093,12 @@
       <c r="H102" s="10">
         <v>-105754000</v>
       </c>
-      <c r="O102" s="31" t="s">
+      <c r="O102" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="P102" s="32">
+      <c r="P102" s="45">
         <f>P101/P103</f>
-        <v>0.93005404185160101</v>
+        <v>0.93223855828128255</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6198,12 +6126,12 @@
       <c r="H103" s="1">
         <v>320958000</v>
       </c>
-      <c r="O103" s="33" t="s">
+      <c r="O103" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="P103" s="38">
+      <c r="P103" s="49">
         <f>P99+P101</f>
-        <v>22547278524</v>
+        <v>23274165366</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6231,10 +6159,10 @@
       <c r="H104" s="11">
         <v>215204000</v>
       </c>
-      <c r="O104" s="70" t="s">
+      <c r="O104" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="P104" s="71"/>
+      <c r="P104" s="66"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6268,35 +6196,35 @@
         <f>(H22*(1-0.2))+H77+H88+H81</f>
         <v>-190229400</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="27">
         <f>H105*(1+$P$106)</f>
         <v>-250130700.60007718</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="27">
         <f t="shared" ref="J105:M105" si="27">I105*(1+$P$106)</f>
         <v>-328894310.67272174</v>
       </c>
-      <c r="K105" s="39">
+      <c r="K105" s="27">
         <f t="shared" si="27"/>
         <v>-432459779.36085242</v>
       </c>
-      <c r="L105" s="39">
+      <c r="L105" s="27">
         <f t="shared" si="27"/>
         <v>-568636959.33901286</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="27">
         <f t="shared" si="27"/>
         <v>-747694946.34669983</v>
       </c>
-      <c r="N105" s="40" t="s">
+      <c r="N105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="O105" s="25" t="s">
+      <c r="O105" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="P105" s="26">
+      <c r="P105" s="51">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.6237518821221623E-2</v>
+        <v>7.6160375201785591E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6328,34 +6256,34 @@
         <f t="shared" si="28"/>
         <v>-7.7071246228823442E-2</v>
       </c>
-      <c r="I106" s="59">
+      <c r="I106" s="33">
         <v>86499000</v>
       </c>
-      <c r="J106" s="59">
+      <c r="J106" s="33">
         <v>99979000</v>
       </c>
-      <c r="K106" s="59">
+      <c r="K106" s="33">
         <v>147000000</v>
       </c>
-      <c r="L106" s="59">
+      <c r="L106" s="33">
         <v>317900000</v>
       </c>
-      <c r="M106" s="59">
+      <c r="M106" s="33">
         <v>436700000</v>
       </c>
-      <c r="N106" s="40" t="s">
+      <c r="N106" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="O106" s="41" t="s">
+      <c r="O106" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="P106" s="42">
+      <c r="P106" s="53">
         <f>(SUM(I4:M4)/5)</f>
         <v>0.31488981513939063</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="39" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -6379,139 +6307,139 @@
       <c r="H107" s="1">
         <v>-39769000</v>
       </c>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="58">
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="32">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8736127554.5334396</v>
-      </c>
-      <c r="N107" s="43" t="s">
+        <v>8749300571.6732368</v>
+      </c>
+      <c r="N107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="44" t="s">
+      <c r="O107" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="P107" s="45">
+      <c r="P107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I108" s="58">
+      <c r="I108" s="32">
         <f t="shared" ref="I108:L108" si="29">I107+I106</f>
         <v>86499000</v>
       </c>
-      <c r="J108" s="58">
+      <c r="J108" s="32">
         <f t="shared" si="29"/>
         <v>99979000</v>
       </c>
-      <c r="K108" s="58">
+      <c r="K108" s="32">
         <f t="shared" si="29"/>
         <v>147000000</v>
       </c>
-      <c r="L108" s="58">
+      <c r="L108" s="32">
         <f t="shared" si="29"/>
         <v>317900000</v>
       </c>
-      <c r="M108" s="58">
+      <c r="M108" s="32">
         <f>M107+M106</f>
-        <v>9172827554.5334396</v>
-      </c>
-      <c r="N108" s="43" t="s">
+        <v>9186000571.6732368</v>
+      </c>
+      <c r="N108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="O108" s="46" t="s">
+      <c r="O108" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="P108" s="47">
+      <c r="P108" s="53">
         <f>P105</f>
-        <v>7.6237518821221623E-2</v>
+        <v>7.6160375201785591E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="66" t="s">
+      <c r="I109" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="J109" s="67"/>
+      <c r="J109" s="63"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I110" s="48" t="s">
+      <c r="I110" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="J110" s="37">
+      <c r="J110" s="48">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>6874322165.2357216</v>
+        <v>6885837316.6807222</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I111" s="48" t="s">
+      <c r="I111" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="J111" s="37">
+      <c r="J111" s="48">
         <f>H40</f>
         <v>1649937000</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="I112" s="48" t="s">
+      <c r="I112" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="J112" s="37">
+      <c r="J112" s="48">
         <f>P99</f>
         <v>1577091000</v>
       </c>
     </row>
     <row r="113" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I113" s="48" t="s">
+      <c r="I113" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="J113" s="37">
+      <c r="J113" s="48">
         <f>J110+J111-J112</f>
-        <v>6947168165.2357216</v>
+        <v>6958683316.6807222</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I114" s="48" t="s">
+      <c r="I114" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="J114" s="49">
+      <c r="J114" s="57">
         <f>H34*(1+(5*0.05))</f>
         <v>407915000</v>
       </c>
     </row>
     <row r="115" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I115" s="50" t="s">
+      <c r="I115" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="J115" s="55">
+      <c r="J115" s="59">
         <f>J113/J114</f>
-        <v>17.030921062563824</v>
+        <v>17.059150354070631</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I116" s="48" t="s">
+      <c r="I116" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J116" s="51" cm="1">
+      <c r="J116" s="60" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>63.18</v>
+        <v>65.37</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I117" s="52" t="s">
+      <c r="I117" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="J117" s="53">
+      <c r="J117" s="61">
         <f>J115/J116-1</f>
-        <v>-0.7304380965089613</v>
+        <v>-0.73903701462336502</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="I118" s="52" t="s">
+      <c r="I118" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="J118" s="54" t="str">
+      <c r="J118" s="62" t="str">
         <f>IF(J115&gt;J116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41AF3E-8048-7A46-912E-7D481543720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0597AA0-B350-C140-B625-FF0C2B570C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2104,7 +2104,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2118,10 +2117,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2135,14 +2136,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2152,6 +2153,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2279,11 +2281,11 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>0.94420000000000004</v>
-    <v>1.29</v>
-    <v>2.0131E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.93669999999999998</v>
+    <v>-0.79</v>
+    <v>-1.2509999999999999E-2</v>
+    <v>0.11</v>
+    <v>1.7639999999999999E-3</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2291,24 +2293,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>66.52</v>
+    <v>64.409899999999993</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.997636921093</v>
+    <v>45114.999928738282</v>
     <v>0</v>
-    <v>64.52</v>
-    <v>21697074366</v>
+    <v>62.24</v>
+    <v>20698020000</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>65.319999999999993</v>
-    <v>64.08</v>
-    <v>65.37</v>
-    <v>65.37</v>
+    <v>63.71</v>
+    <v>63.15</v>
+    <v>62.36</v>
+    <v>62.47</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>2756064</v>
-    <v>5095036</v>
+    <v>2573850</v>
+    <v>4522555</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2892,10 +2894,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3549,15 +3551,15 @@
       </c>
       <c r="O16" s="34">
         <f>P101/H3</f>
-        <v>22.247910379075531</v>
+        <v>21.223492449558623</v>
       </c>
       <c r="P16" s="34">
         <f>P101/H28</f>
-        <v>-112.19858396636691</v>
+        <v>-107.03233513116594</v>
       </c>
       <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>-545.5775696145239</v>
+        <v>-520.45613417485981</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3670,15 +3672,15 @@
       </c>
       <c r="O19" s="37">
         <f>P101/I3</f>
-        <v>16.924394981279253</v>
+        <v>16.145101404056163</v>
       </c>
       <c r="P19" s="37">
         <f>P101/I28</f>
-        <v>184.81323991482111</v>
+        <v>176.30340715502555</v>
       </c>
       <c r="Q19" s="36">
         <f>P101/I105</f>
-        <v>-86.742948042553493</v>
+        <v>-82.748818718951014</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3816,7 @@
       </c>
       <c r="Q22" s="41">
         <f>H107/P101</f>
-        <v>-1.8329199287033498E-3</v>
+        <v>-1.9213915147439223E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5838,7 +5840,7 @@
       </c>
       <c r="P94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5871,7 +5873,7 @@
       </c>
       <c r="P95" s="47" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.94420000000000004</v>
+        <v>0.93669999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5936,7 +5938,7 @@
       </c>
       <c r="P97" s="45">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1463331999999999E-2</v>
+        <v>8.1240752999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6032,7 +6034,7 @@
       </c>
       <c r="P100" s="45">
         <f>P99/P103</f>
-        <v>6.7761441718717397E-2</v>
+        <v>7.0800589949922138E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6065,7 +6067,7 @@
       </c>
       <c r="P101" s="48" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21697074366</v>
+        <v>20698020000</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6098,7 +6100,7 @@
       </c>
       <c r="P102" s="45">
         <f>P101/P103</f>
-        <v>0.93223855828128255</v>
+        <v>0.92919941005007789</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6131,7 +6133,7 @@
       </c>
       <c r="P103" s="49">
         <f>P99+P101</f>
-        <v>23274165366</v>
+        <v>22275111000</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6224,7 +6226,7 @@
       </c>
       <c r="P105" s="51">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.6160375201785591E-2</v>
+        <v>7.571571359109619E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6313,7 +6315,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="32">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8749300571.6732368</v>
+        <v>8826012064.2093277</v>
       </c>
       <c r="N107" s="29" t="s">
         <v>145</v>
@@ -6344,7 +6346,7 @@
       </c>
       <c r="M108" s="32">
         <f>M107+M106</f>
-        <v>9186000571.6732368</v>
+        <v>9262712064.2093277</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>142</v>
@@ -6354,7 +6356,7 @@
       </c>
       <c r="P108" s="53">
         <f>P105</f>
-        <v>7.6160375201785591E-2</v>
+        <v>7.571571359109619E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6369,7 +6371,7 @@
       </c>
       <c r="J110" s="48">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>6885837316.6807222</v>
+        <v>6952901372.9180145</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6396,7 +6398,7 @@
       </c>
       <c r="J113" s="48">
         <f>J110+J111-J112</f>
-        <v>6958683316.6807222</v>
+        <v>7025747372.9180145</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6414,7 +6416,7 @@
       </c>
       <c r="J115" s="59">
         <f>J113/J114</f>
-        <v>17.059150354070631</v>
+        <v>17.22355729237222</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6423,7 +6425,7 @@
       </c>
       <c r="J116" s="60" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>65.37</v>
+        <v>62.36</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6432,7 +6434,7 @@
       </c>
       <c r="J117" s="61">
         <f>J115/J116-1</f>
-        <v>-0.73903701462336502</v>
+        <v>-0.72380440518966926</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0597AA0-B350-C140-B625-FF0C2B570C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01D491-AB01-574F-9547-62AB7A077BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1090,9 +1090,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.3466227347611208E-2"/>
-          <c:y val="0.11681497217118651"/>
+          <c:y val="0.15629453641434296"/>
           <c:w val="0.86381548599670499"/>
-          <c:h val="0.7587979694721102"/>
+          <c:h val="0.71931846409971123"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2066,8 +2066,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2102,8 +2102,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2112,21 +2111,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2136,24 +2136,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2282,10 +2270,8 @@
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
     <v>0.93669999999999998</v>
-    <v>-0.79</v>
-    <v>-1.2509999999999999E-2</v>
-    <v>0.11</v>
-    <v>1.7639999999999999E-3</v>
+    <v>3.12</v>
+    <v>5.0031999999999993E-2</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2293,24 +2279,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>64.409899999999993</v>
+    <v>65.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999928738282</v>
+    <v>45117.999979687498</v>
     <v>0</v>
-    <v>62.24</v>
-    <v>20698020000</v>
+    <v>60.56</v>
+    <v>21733584664</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>63.71</v>
-    <v>63.15</v>
+    <v>61.6</v>
     <v>62.36</v>
-    <v>62.47</v>
+    <v>65.48</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>2573850</v>
-    <v>4522555</v>
+    <v>384</v>
+    <v>4248395</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2342,8 +2327,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2363,7 +2346,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2380,7 +2362,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2391,16 +2373,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2464,19 +2443,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2520,9 +2493,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2530,9 +2500,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2894,10 +2861,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3018,10 +2985,10 @@
         <v>1282000000</v>
       </c>
       <c r="J3" s="24">
-        <v>1668000000</v>
+        <v>1664000000</v>
       </c>
       <c r="K3" s="24">
-        <v>2151000000</v>
+        <v>2139000000</v>
       </c>
       <c r="L3" s="24">
         <v>2988000000</v>
@@ -3077,15 +3044,15 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30109204368174725</v>
+        <v>0.29797191887675512</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28956834532374098</v>
+        <v>0.28545673076923084</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.38912133891213396</v>
+        <v>0.39691444600280512</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
@@ -3551,15 +3518,15 @@
       </c>
       <c r="O16" s="34">
         <f>P101/H3</f>
-        <v>21.223492449558623</v>
+        <v>22.285347584853383</v>
       </c>
       <c r="P16" s="34">
         <f>P101/H28</f>
-        <v>-107.03233513116594</v>
+        <v>-112.38738378641128</v>
       </c>
       <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>-520.45613417485981</v>
+        <v>-546.49562885664716</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3655,10 +3622,10 @@
         <v>204300000</v>
       </c>
       <c r="J19" s="30">
-        <v>265600000</v>
+        <v>265000000</v>
       </c>
       <c r="K19" s="30">
-        <v>379000000</v>
+        <v>372000000</v>
       </c>
       <c r="L19" s="30">
         <v>384000000</v>
@@ -3672,15 +3639,15 @@
       </c>
       <c r="O19" s="37">
         <f>P101/I3</f>
-        <v>16.145101404056163</v>
+        <v>16.952874152886114</v>
       </c>
       <c r="P19" s="37">
         <f>P101/I28</f>
-        <v>176.30340715502555</v>
+        <v>185.12423052810902</v>
       </c>
       <c r="Q19" s="36">
         <f>P101/I105</f>
-        <v>-82.748818718951014</v>
+        <v>-86.881494436396352</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,15 +3685,15 @@
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
-        <v>0.30004894762604017</v>
+        <v>0.29711209006363193</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
-        <v>0.4269578313253013</v>
+        <v>0.40377358490566029</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="9">(L19/K19)-1</f>
-        <v>1.3192612137203241E-2</v>
+        <v>3.2258064516129004E-2</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="10">(M19/L19)-1</f>
@@ -3764,11 +3731,11 @@
       </c>
       <c r="J21" s="31">
         <f t="shared" ref="J21:M21" si="11">J19/J3</f>
-        <v>0.15923261390887289</v>
+        <v>0.15925480769230768</v>
       </c>
       <c r="K21" s="31">
         <f t="shared" si="11"/>
-        <v>0.17619711761971177</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="L21" s="31">
         <f t="shared" si="11"/>
@@ -3816,7 +3783,7 @@
       </c>
       <c r="Q22" s="41">
         <f>H107/P101</f>
-        <v>-1.9213915147439223E-3</v>
+        <v>-1.8298408023722965E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3981,7 +3948,7 @@
         <v>148100000</v>
       </c>
       <c r="K28" s="38">
-        <v>224500000</v>
+        <v>220000000</v>
       </c>
       <c r="L28" s="38">
         <v>406600000</v>
@@ -4029,11 +3996,11 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="17">(K28/J28)-1</f>
-        <v>0.51586765698852122</v>
+        <v>0.48548278190411875</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="18">(L28/K28)-1</f>
-        <v>0.81113585746102457</v>
+        <v>0.84818181818181815</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="19">(M28/L28)-1</f>
@@ -4071,11 +4038,11 @@
       </c>
       <c r="J30" s="31">
         <f t="shared" ref="J30:M30" si="20">J28/J3</f>
-        <v>8.8788968824940043E-2</v>
+        <v>8.9002403846153849E-2</v>
       </c>
       <c r="K30" s="31">
         <f t="shared" si="20"/>
-        <v>0.10437006043700604</v>
+        <v>0.10285179990649837</v>
       </c>
       <c r="L30" s="31">
         <f t="shared" si="20"/>
@@ -4110,6 +4077,21 @@
       </c>
       <c r="H31" s="12">
         <v>-0.59</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="L31" s="12">
+        <v>1.22</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1.92</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5840,7 +5822,7 @@
       </c>
       <c r="P94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5938,7 +5920,7 @@
       </c>
       <c r="P97" s="45">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1240752999999999E-2</v>
+        <v>8.1245183999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6034,7 +6016,7 @@
       </c>
       <c r="P100" s="45">
         <f>P99/P103</f>
-        <v>7.0800589949922138E-2</v>
+        <v>6.7655310499454599E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6067,7 +6049,7 @@
       </c>
       <c r="P101" s="48" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20698020000</v>
+        <v>21733584664</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6082,7 @@
       </c>
       <c r="P102" s="45">
         <f>P101/P103</f>
-        <v>0.92919941005007789</v>
+        <v>0.93234468950054539</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6133,7 +6115,7 @@
       </c>
       <c r="P103" s="49">
         <f>P99+P101</f>
-        <v>22275111000</v>
+        <v>23310675664</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6200,23 +6182,23 @@
       </c>
       <c r="I105" s="27">
         <f>H105*(1+$P$106)</f>
-        <v>-250130700.60007718</v>
+        <v>-250152058.32941312</v>
       </c>
       <c r="J105" s="27">
         <f t="shared" ref="J105:M105" si="27">I105*(1+$P$106)</f>
-        <v>-328894310.67272174</v>
+        <v>-328950479.19218642</v>
       </c>
       <c r="K105" s="27">
         <f t="shared" si="27"/>
-        <v>-432459779.36085242</v>
+        <v>-432570567.21186215</v>
       </c>
       <c r="L105" s="27">
         <f t="shared" si="27"/>
-        <v>-568636959.33901286</v>
+        <v>-568831199.38752401</v>
       </c>
       <c r="M105" s="27">
         <f t="shared" si="27"/>
-        <v>-747694946.34669983</v>
+        <v>-748014215.30414295</v>
       </c>
       <c r="N105" s="28" t="s">
         <v>162</v>
@@ -6226,7 +6208,7 @@
       </c>
       <c r="P105" s="51">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.571571359109619E-2</v>
+        <v>7.5965291817680983E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6281,7 +6263,7 @@
       </c>
       <c r="P106" s="53">
         <f>(SUM(I4:M4)/5)</f>
-        <v>0.31488981513939063</v>
+        <v>0.3150020886856244</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6315,7 +6297,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="32">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8826012064.2093277</v>
+        <v>8782790876.608139</v>
       </c>
       <c r="N107" s="29" t="s">
         <v>145</v>
@@ -6346,7 +6328,7 @@
       </c>
       <c r="M108" s="32">
         <f>M107+M106</f>
-        <v>9262712064.2093277</v>
+        <v>9219490876.608139</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>142</v>
@@ -6356,7 +6338,7 @@
       </c>
       <c r="P108" s="53">
         <f>P105</f>
-        <v>7.571571359109619E-2</v>
+        <v>7.5965291817680983E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6371,7 +6353,7 @@
       </c>
       <c r="J110" s="48">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>6952901372.9180145</v>
+        <v>6915114342.7841206</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6398,7 +6380,7 @@
       </c>
       <c r="J113" s="48">
         <f>J110+J111-J112</f>
-        <v>7025747372.9180145</v>
+        <v>6987960342.7841206</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6416,7 +6398,7 @@
       </c>
       <c r="J115" s="59">
         <f>J113/J114</f>
-        <v>17.22355729237222</v>
+        <v>17.130922723567707</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6425,7 +6407,7 @@
       </c>
       <c r="J116" s="60" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>62.36</v>
+        <v>65.48</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6434,7 +6416,7 @@
       </c>
       <c r="J117" s="61">
         <f>J115/J116-1</f>
-        <v>-0.72380440518966926</v>
+        <v>-0.73837931088015107</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC01D491-AB01-574F-9547-62AB7A077BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24D53B-AF0F-294A-A284-921331263CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,12 +861,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -988,6 +997,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2112,6 +2122,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2123,7 +2134,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2142,6 +2153,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2269,9 +2281,11 @@
     <v>Powered by Refinitiv</v>
     <v>80.989999999999995</v>
     <v>37.369999999999997</v>
-    <v>0.93669999999999998</v>
-    <v>3.12</v>
-    <v>5.0031999999999993E-2</v>
+    <v>0.92179999999999995</v>
+    <v>1.7</v>
+    <v>2.5998E-2</v>
+    <v>-0.49</v>
+    <v>-7.3040000000000006E-3</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3217</v>
@@ -2279,23 +2293,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>65.52</v>
+    <v>68.33</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999979687498</v>
+    <v>45132.977824062502</v>
     <v>0</v>
-    <v>60.56</v>
-    <v>21733584664</v>
+    <v>65.599999999999994</v>
+    <v>22267962662</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>61.6</v>
-    <v>62.36</v>
-    <v>65.48</v>
+    <v>65.63</v>
+    <v>65.39</v>
+    <v>67.09</v>
+    <v>66.599999999999994</v>
     <v>331911800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>384</v>
-    <v>4248395</v>
+    <v>3104844</v>
+    <v>3746415</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2327,6 +2342,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2346,6 +2363,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2362,7 +2380,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2373,13 +2391,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2443,13 +2464,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2493,6 +2520,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2500,6 +2530,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2861,10 +2894,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3518,15 +3551,15 @@
       </c>
       <c r="O16" s="34">
         <f>P101/H3</f>
-        <v>22.285347584853383</v>
+        <v>22.833292142147428</v>
       </c>
       <c r="P16" s="34">
         <f>P101/H28</f>
-        <v>-112.38738378641128</v>
+        <v>-115.15072660706068</v>
       </c>
       <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>-546.49562885664716</v>
+        <v>-559.93267776408766</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3639,15 +3672,15 @@
       </c>
       <c r="O19" s="37">
         <f>P101/I3</f>
-        <v>16.952874152886114</v>
+        <v>17.369705664586583</v>
       </c>
       <c r="P19" s="37">
         <f>P101/I28</f>
-        <v>185.12423052810902</v>
+        <v>189.67600223168654</v>
       </c>
       <c r="Q19" s="36">
         <f>P101/I105</f>
-        <v>-86.881494436396352</v>
+        <v>-89.017707112673037</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3725,23 +3758,23 @@
       <c r="H21" s="2">
         <v>-8.5800000000000001E-2</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="63">
         <f>I19/I3</f>
         <v>0.15936037441497661</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="63">
         <f t="shared" ref="J21:M21" si="11">J19/J3</f>
         <v>0.15925480769230768</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="63">
         <f t="shared" si="11"/>
         <v>0.17391304347826086</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="63">
         <f t="shared" si="11"/>
         <v>0.12851405622489959</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="63">
         <f t="shared" si="11"/>
         <v>0.1380392156862745</v>
       </c>
@@ -3783,7 +3816,7 @@
       </c>
       <c r="Q22" s="41">
         <f>H107/P101</f>
-        <v>-1.8298408023722965E-3</v>
+        <v>-1.785928987022477E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5456,10 +5489,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="64" t="s">
+      <c r="O83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="P83" s="65"/>
+      <c r="P83" s="66"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5486,10 +5519,10 @@
       <c r="H84" s="1">
         <v>-9605000</v>
       </c>
-      <c r="O84" s="66" t="s">
+      <c r="O84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="P84" s="66"/>
+      <c r="P84" s="67"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5787,10 +5820,10 @@
       <c r="H93" s="1">
         <v>-19722000</v>
       </c>
-      <c r="O93" s="66" t="s">
+      <c r="O93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="P93" s="66"/>
+      <c r="P93" s="67"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5822,7 +5855,7 @@
       </c>
       <c r="P94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5855,7 +5888,7 @@
       </c>
       <c r="P95" s="47" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.93669999999999998</v>
+        <v>0.92179999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5920,7 +5953,7 @@
       </c>
       <c r="P97" s="45">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.1245183999999998E-2</v>
+        <v>8.0490383999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5948,10 +5981,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="66" t="s">
+      <c r="O98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="P98" s="66"/>
+      <c r="P98" s="67"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6016,7 +6049,7 @@
       </c>
       <c r="P100" s="45">
         <f>P99/P103</f>
-        <v>6.7655310499454599E-2</v>
+        <v>6.6139125638173202E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6049,7 +6082,7 @@
       </c>
       <c r="P101" s="48" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21733584664</v>
+        <v>22267962662</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6082,7 +6115,7 @@
       </c>
       <c r="P102" s="45">
         <f>P101/P103</f>
-        <v>0.93234468950054539</v>
+        <v>0.93386087436182674</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6115,7 +6148,7 @@
       </c>
       <c r="P103" s="49">
         <f>P99+P101</f>
-        <v>23310675664</v>
+        <v>23845053662</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6143,10 +6176,10 @@
       <c r="H104" s="11">
         <v>215204000</v>
       </c>
-      <c r="O104" s="66" t="s">
+      <c r="O104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="P104" s="66"/>
+      <c r="P104" s="67"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6208,7 +6241,7 @@
       </c>
       <c r="P105" s="51">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.5965291817680983E-2</v>
+        <v>7.5378738304256801E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6297,7 +6330,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="32">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8782790876.608139</v>
+        <v>8885047840.949564</v>
       </c>
       <c r="N107" s="29" t="s">
         <v>145</v>
@@ -6328,7 +6361,7 @@
       </c>
       <c r="M108" s="32">
         <f>M107+M106</f>
-        <v>9219490876.608139</v>
+        <v>9321747840.949564</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>142</v>
@@ -6338,14 +6371,14 @@
       </c>
       <c r="P108" s="53">
         <f>P105</f>
-        <v>7.5965291817680983E-2</v>
+        <v>7.5378738304256801E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="63" t="s">
+      <c r="I109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="J109" s="63"/>
+      <c r="J109" s="64"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="I110" s="57" t="s">
@@ -6353,7 +6386,7 @@
       </c>
       <c r="J110" s="48">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>6915114342.7841206</v>
+        <v>7004520607.0644283</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6380,7 +6413,7 @@
       </c>
       <c r="J113" s="48">
         <f>J110+J111-J112</f>
-        <v>6987960342.7841206</v>
+        <v>7077366607.0644283</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6398,7 +6431,7 @@
       </c>
       <c r="J115" s="59">
         <f>J113/J114</f>
-        <v>17.130922723567707</v>
+        <v>17.350101386476172</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6407,7 +6440,7 @@
       </c>
       <c r="J116" s="60" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>65.48</v>
+        <v>67.09</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6416,7 +6449,7 @@
       </c>
       <c r="J117" s="61">
         <f>J115/J116-1</f>
-        <v>-0.73837931088015107</v>
+        <v>-0.74139064858434689</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24D53B-AF0F-294A-A284-921331263CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA529C94-2AD6-5645-9948-233E55A30AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -573,7 +573,13 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +595,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +707,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,6 +1011,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2121,20 +2138,25 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.8019999999999993E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2154,6 +2176,11 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2279,38 +2306,35 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>80.989999999999995</v>
+    <v>76.069999999999993</v>
     <v>37.369999999999997</v>
-    <v>0.92179999999999995</v>
-    <v>1.7</v>
-    <v>2.5998E-2</v>
-    <v>-0.49</v>
-    <v>-7.3040000000000006E-3</v>
+    <v>0.96209999999999996</v>
+    <v>0.85</v>
+    <v>1.4555E-2</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
-    <v>3217</v>
+    <v>3389</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>68.33</v>
+    <v>59.89</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.977824062502</v>
+    <v>45203.99948337891</v>
     <v>0</v>
-    <v>65.599999999999994</v>
-    <v>22267962662</v>
+    <v>58.12</v>
+    <v>19802446125</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>65.63</v>
-    <v>65.39</v>
-    <v>67.09</v>
-    <v>66.599999999999994</v>
-    <v>331911800</v>
+    <v>59.15</v>
+    <v>58.4</v>
+    <v>59.25</v>
+    <v>334218500</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>3104844</v>
-    <v>3746415</v>
+    <v>278</v>
+    <v>3348843</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2342,8 +2366,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2363,7 +2385,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2380,7 +2401,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2391,16 +2412,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2464,19 +2482,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2520,9 +2532,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2530,9 +2539,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2894,10 +2900,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I129" sqref="I129"/>
+      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3551,15 +3557,15 @@
       </c>
       <c r="O16" s="34">
         <f>P101/H3</f>
-        <v>22.833292142147428</v>
+        <v>20.305182129340338</v>
       </c>
       <c r="P16" s="34">
         <f>P101/H28</f>
-        <v>-115.15072660706068</v>
+        <v>-102.40119828214767</v>
       </c>
       <c r="Q16" s="36">
         <f>P101/H107</f>
-        <v>-559.93267776408766</v>
+        <v>-497.93673778571247</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3672,15 +3678,15 @@
       </c>
       <c r="O19" s="37">
         <f>P101/I3</f>
-        <v>17.369705664586583</v>
+        <v>15.446525838533541</v>
       </c>
       <c r="P19" s="37">
         <f>P101/I28</f>
-        <v>189.67600223168654</v>
+        <v>168.67500958262352</v>
       </c>
       <c r="Q19" s="36">
         <f>P101/I105</f>
-        <v>-89.017707112673037</v>
+        <v>-79.161635755653549</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3778,11 +3784,14 @@
         <f t="shared" si="11"/>
         <v>0.1380392156862745</v>
       </c>
+      <c r="O21" s="65" t="s">
+        <v>168</v>
+      </c>
       <c r="P21" s="19" t="s">
         <v>165</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3810,13 +3819,17 @@
       <c r="H22" s="10">
         <v>-201203000</v>
       </c>
+      <c r="O22" s="17">
+        <f>SUM(J29:M29)/4</f>
+        <v>0.54069944666603154</v>
+      </c>
       <c r="P22" s="40">
         <f>(-1*H98)/P101</f>
         <v>0</v>
       </c>
       <c r="Q22" s="41">
-        <f>H107/P101</f>
-        <v>-1.785928987022477E-3</v>
+        <f>I106/P101</f>
+        <v>4.8823766210347409E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -4153,7 +4166,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4178,8 +4191,12 @@
       <c r="H33" s="1">
         <v>326332000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" cm="1">
+        <f t="array" ref="I33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>334218500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4204,8 +4221,12 @@
       <c r="H34" s="1">
         <v>326332000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" cm="1">
+        <f t="array" ref="I34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>334218500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4231,11 +4252,15 @@
         <v>4.9267114559634922E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" ref="H35" si="23">(H34-G34)/G34</f>
+        <f t="shared" ref="H35:I35" si="23">(H34-G34)/G34</f>
         <v>3.7479772240997258E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="I35" s="22">
+        <f t="shared" si="23"/>
+        <v>2.4167105892158907E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4261,7 +4286,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>204178000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4339,7 +4364,7 @@
         <v>1445759000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4365,7 +4390,7 @@
         <v>1649937000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4391,7 +4416,7 @@
         <v>156836000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4417,7 +4442,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4443,7 +4468,7 @@
         <v>81111000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4469,7 +4494,7 @@
         <v>1887884000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4495,7 +4520,7 @@
         <v>418960000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4521,7 +4546,7 @@
         <v>148047000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4547,7 +4572,7 @@
         <v>32483000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -5489,10 +5514,10 @@
       <c r="H83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O83" s="65" t="s">
+      <c r="O83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="P83" s="66"/>
+      <c r="P83" s="68"/>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5519,10 +5544,10 @@
       <c r="H84" s="1">
         <v>-9605000</v>
       </c>
-      <c r="O84" s="67" t="s">
+      <c r="O84" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="P84" s="67"/>
+      <c r="P84" s="69"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5820,10 +5845,10 @@
       <c r="H93" s="1">
         <v>-19722000</v>
       </c>
-      <c r="O93" s="67" t="s">
+      <c r="O93" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="P93" s="67"/>
+      <c r="P93" s="69"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5855,7 +5880,7 @@
       </c>
       <c r="P94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.8019999999999993E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5888,7 +5913,7 @@
       </c>
       <c r="P95" s="47" cm="1">
         <f t="array" ref="P95">_FV(A1,"Beta")</f>
-        <v>0.92179999999999995</v>
+        <v>0.96209999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5953,7 +5978,7 @@
       </c>
       <c r="P97" s="45">
         <f>(P94)+((P95)*(P96-P94))</f>
-        <v>8.0490383999999998E-2</v>
+        <v>8.2636357999999993E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5981,10 +6006,10 @@
       <c r="H98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="67" t="s">
+      <c r="O98" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="P98" s="67"/>
+      <c r="P98" s="69"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6049,7 +6074,7 @@
       </c>
       <c r="P100" s="45">
         <f>P99/P103</f>
-        <v>6.6139125638173202E-2</v>
+        <v>7.3766377203547617E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6082,7 +6107,7 @@
       </c>
       <c r="P101" s="48" cm="1">
         <f t="array" ref="P101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22267962662</v>
+        <v>19802446125</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6115,7 +6140,7 @@
       </c>
       <c r="P102" s="45">
         <f>P101/P103</f>
-        <v>0.93386087436182674</v>
+        <v>0.92623362279645238</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6143,12 +6168,15 @@
       <c r="H103" s="1">
         <v>320958000</v>
       </c>
+      <c r="N103" s="28" t="s">
+        <v>166</v>
+      </c>
       <c r="O103" s="44" t="s">
         <v>142</v>
       </c>
       <c r="P103" s="49">
         <f>P99+P101</f>
-        <v>23845053662</v>
+        <v>21379537125</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6176,10 +6204,34 @@
       <c r="H104" s="11">
         <v>215204000</v>
       </c>
-      <c r="O104" s="67" t="s">
+      <c r="I104" s="64">
+        <f>(I106/H107)-1</f>
+        <v>-3.4311146873192686</v>
+      </c>
+      <c r="J104" s="64">
+        <f>(J106/I106)-1</f>
+        <v>0.15945926377956821</v>
+      </c>
+      <c r="K104" s="64">
+        <f>(K106/J106)-1</f>
+        <v>0.46297948260481703</v>
+      </c>
+      <c r="L104" s="64">
+        <f>(L106/K106)-1</f>
+        <v>1.0853658536585367</v>
+      </c>
+      <c r="M104" s="64">
+        <f>(M106/L106)-1</f>
+        <v>0.46198830409356728</v>
+      </c>
+      <c r="N104" s="64">
+        <f>SUM(I104:M104)/5</f>
+        <v>-0.25226435663655578</v>
+      </c>
+      <c r="O104" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="P104" s="67"/>
+      <c r="P104" s="69"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6241,7 +6293,7 @@
       </c>
       <c r="P105" s="51">
         <f>(P100*P92)+(P102*P97)</f>
-        <v>7.5378738304256801E-2</v>
+        <v>7.6776929825043111E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6274,19 +6326,19 @@
         <v>-7.7071246228823442E-2</v>
       </c>
       <c r="I106" s="33">
-        <v>86499000</v>
+        <v>96683000</v>
       </c>
       <c r="J106" s="33">
-        <v>99979000</v>
+        <v>112100000</v>
       </c>
       <c r="K106" s="33">
-        <v>147000000</v>
+        <v>164000000</v>
       </c>
       <c r="L106" s="33">
-        <v>317900000</v>
+        <v>342000000</v>
       </c>
       <c r="M106" s="33">
-        <v>436700000</v>
+        <v>500000000</v>
       </c>
       <c r="N106" s="28" t="s">
         <v>163</v>
@@ -6330,7 +6382,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="32">
         <f>M106*(1+P107)/(P108-P107)</f>
-        <v>8885047840.949564</v>
+        <v>9898230770.5722141</v>
       </c>
       <c r="N107" s="29" t="s">
         <v>145</v>
@@ -6345,23 +6397,23 @@
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="I108" s="32">
         <f t="shared" ref="I108:L108" si="29">I107+I106</f>
-        <v>86499000</v>
+        <v>96683000</v>
       </c>
       <c r="J108" s="32">
         <f t="shared" si="29"/>
-        <v>99979000</v>
+        <v>112100000</v>
       </c>
       <c r="K108" s="32">
         <f t="shared" si="29"/>
-        <v>147000000</v>
+        <v>164000000</v>
       </c>
       <c r="L108" s="32">
         <f t="shared" si="29"/>
-        <v>317900000</v>
+        <v>342000000</v>
       </c>
       <c r="M108" s="32">
         <f>M107+M106</f>
-        <v>9321747840.949564</v>
+        <v>10398230770.572214</v>
       </c>
       <c r="N108" s="29" t="s">
         <v>142</v>
@@ -6371,14 +6423,14 @@
       </c>
       <c r="P108" s="53">
         <f>P105</f>
-        <v>7.5378738304256801E-2</v>
+        <v>7.6776929825043111E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="I109" s="64" t="s">
+      <c r="I109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="J109" s="64"/>
+      <c r="J109" s="66"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="I110" s="57" t="s">
@@ -6386,7 +6438,7 @@
       </c>
       <c r="J110" s="48">
         <f>NPV(P108,I108,J108,K108,L108,M108)</f>
-        <v>7004520607.0644283</v>
+        <v>7755649158.6009407</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -6413,7 +6465,7 @@
       </c>
       <c r="J113" s="48">
         <f>J110+J111-J112</f>
-        <v>7077366607.0644283</v>
+        <v>7828495158.6009407</v>
       </c>
     </row>
     <row r="114" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6431,7 +6483,7 @@
       </c>
       <c r="J115" s="59">
         <f>J113/J114</f>
-        <v>17.350101386476172</v>
+        <v>19.191486360150865</v>
       </c>
     </row>
     <row r="116" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6440,7 +6492,7 @@
       </c>
       <c r="J116" s="60" cm="1">
         <f t="array" ref="J116">_FV(A1,"Price")</f>
-        <v>67.09</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="117" spans="9:10" ht="20" x14ac:dyDescent="0.25">
@@ -6449,7 +6501,7 @@
       </c>
       <c r="J117" s="61">
         <f>J115/J116-1</f>
-        <v>-0.74139064858434689</v>
+        <v>-0.67609305721264357</v>
       </c>
     </row>
     <row r="118" spans="9:10" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Cloudflare.xlsx
+++ b/Technology/Software/Cloudflare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D85D6-6B8F-9141-9B86-BEC94F813F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346E7E37-835F-A94D-AF2E-7539608555F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,6 +1805,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1824,7 +1826,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1837,6 +1839,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1962,13 +1966,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>79.61</v>
+    <v>80.17</v>
     <v>37.56</v>
-    <v>1.0975999999999999</v>
-    <v>1.64</v>
-    <v>2.1257000000000002E-2</v>
-    <v>0.62</v>
-    <v>7.8700000000000003E-3</v>
+    <v>1.0988</v>
+    <v>0.72</v>
+    <v>9.3749999999999997E-3</v>
+    <v>0.1794</v>
+    <v>2.3140000000000001E-3</v>
     <v>USD</v>
     <v>Cloudflare, Inc. is a global cloud services provider that delivers a range of services to businesses of all sizes and in all geographies. The Company's network serves as a scalable, unified control plane to deliver security, performance, and reliability across on-premise, hybrid, cloud, and software-as-a-service (SaaS) applications. Its integrated suite of products consists of solutions for an organization's external-facing infrastructure, such as Websites, applications, and application programming interfaces (APIs) to deliver security, performance, and reliability; solutions to serve an organization's internal resources, such as Internal networks and devices; developer-based solutions, and consumer offerings. Its security products include Web Application Firewall, Bot Management, Distributed Denial of Service (DDoS), API Gateway, SSL/TLS Encryption, and Secure Origin Connection. Its performance products include Content Delivery, Intelligent Routing, Content Optimization, and Others.</v>
     <v>3529</v>
@@ -1976,24 +1980,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 Townsend St, SAN FRANCISCO, CA, 94107-1934 US</v>
-    <v>78.878</v>
+    <v>78.34</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.039684513278</v>
+    <v>45269.041436515625</v>
     <v>0</v>
-    <v>75.790000000000006</v>
-    <v>26455460122</v>
+    <v>75.78</v>
+    <v>26029029936</v>
     <v>CLOUDFLARE, INC.</v>
     <v>CLOUDFLARE, INC.</v>
-    <v>77.44</v>
-    <v>77.150000000000006</v>
-    <v>78.790000000000006</v>
-    <v>79.400000000000006</v>
+    <v>75.98</v>
+    <v>76.8</v>
+    <v>77.52</v>
+    <v>77.699399999999997</v>
     <v>335771800</v>
     <v>NET</v>
     <v>CLOUDFLARE, INC. (XNYS:NET)</v>
-    <v>3588757</v>
-    <v>4310620</v>
+    <v>2600933</v>
+    <v>4378117</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2155,9 +2159,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -10646,7 +10650,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>26455460122</v>
+        <v>26029029936</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>195</v>
@@ -10674,7 +10678,7 @@
       </c>
       <c r="I3" s="109">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>8667237858.6798134</v>
+        <v>8619698885.4264927</v>
       </c>
       <c r="J3" s="45" t="s">
         <v>199</v>
@@ -10726,14 +10730,14 @@
       </c>
       <c r="I4" s="110">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>6607793851.4332285</v>
+        <v>6566540315.3821011</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="111" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1257000000000002E-2</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>207</v>
@@ -10778,14 +10782,14 @@
       </c>
       <c r="I5" s="110">
         <f>I4+G5-G6</f>
-        <v>6762977851.4332285</v>
+        <v>6721724315.3821011</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="117" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>78.790000000000006</v>
+        <v>77.52</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>214</v>
@@ -10805,7 +10809,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <f>O20/F10</f>
-        <v>20.555913070707071</v>
+        <v>20.224576484848484</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>216</v>
@@ -10833,14 +10837,14 @@
       </c>
       <c r="I6" s="116">
         <f>N25</f>
-        <v>9.0753358716153518E-2</v>
+        <v>9.1115998664819009E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="114">
         <f>I5/G4</f>
-        <v>17.721691738253277</v>
+        <v>17.613591066467684</v>
       </c>
       <c r="L6" s="58" t="s">
         <v>220</v>
@@ -10860,14 +10864,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>167.43962102531646</v>
+        <v>164.74069579746836</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="108">
         <f>F15/A3</f>
-        <v>5.4809101535686381E-3</v>
+        <v>5.5707031862702915E-3</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>223</v>
@@ -10894,7 +10898,7 @@
       </c>
       <c r="K7" s="115">
         <f>K6/K5-1</f>
-        <v>-0.77507689125202084</v>
+        <v>-0.77278649295062329</v>
       </c>
       <c r="L7" s="64" t="s">
         <v>226</v>
@@ -11221,7 +11225,7 @@
       </c>
       <c r="O14" s="83">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="47"/>
       <c r="Q14" s="47"/>
@@ -11373,7 +11377,7 @@
       </c>
       <c r="O17" s="92">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
@@ -11456,7 +11460,7 @@
       </c>
       <c r="O20" s="98">
         <f>A3</f>
-        <v>26455460122</v>
+        <v>26029029936</v>
       </c>
       <c r="P20" s="47"/>
       <c r="Q20" s="47"/>
@@ -11486,7 +11490,7 @@
       </c>
       <c r="O21" s="98">
         <f>O19+O20</f>
-        <v>27874581122</v>
+        <v>27448150936</v>
       </c>
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
@@ -11514,7 +11518,7 @@
       </c>
       <c r="O22" s="100">
         <f>(O19/O21)</f>
-        <v>5.0910935442899242E-2</v>
+        <v>5.1701879784504259E-2</v>
       </c>
       <c r="P22" s="47"/>
       <c r="Q22" s="47"/>
@@ -11539,7 +11543,7 @@
       </c>
       <c r="O23" s="101">
         <f>O20/O21</f>
-        <v>0.94908906455710074</v>
+        <v>0.94829812021549575</v>
       </c>
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
@@ -11583,7 +11587,7 @@
       <c r="M25" s="66"/>
       <c r="N25" s="121">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.0753358716153518E-2</v>
+        <v>9.1115998664819009E-2</v>
       </c>
       <c r="O25" s="122"/>
       <c r="P25" s="47"/>
